--- a/assets/data/Document Profiles.xlsx
+++ b/assets/data/Document Profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="136" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="226" uniqueCount="209">
   <si>
     <t>Document group</t>
   </si>
@@ -259,6 +259,276 @@
   </si>
   <si>
     <t>Summarization &gt; Matrix factorization</t>
+  </si>
+  <si>
+    <t>Summarizing Entities &gt; Marks</t>
+  </si>
+  <si>
+    <t>Summarizing Entities &gt; Captions</t>
+  </si>
+  <si>
+    <t>Summarizing Entities &gt; Tags</t>
+  </si>
+  <si>
+    <t>Summarizing Entities &gt; Representative Images</t>
+  </si>
+  <si>
+    <t>..&gt; Representative Images &gt; for fictional stories</t>
+  </si>
+  <si>
+    <t>Summarizing Entities &gt; None</t>
+  </si>
+  <si>
+    <t>Visual Layout</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; Grid</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; Word cloud</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; Map</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; Collage</t>
+  </si>
+  <si>
+    <t>..&gt; Collage &gt; Templates</t>
+  </si>
+  <si>
+    <t>..&gt; Collage &gt; Collage with Tags / Text</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; images surrounding tag cloud</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; None OR NOT STATED</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; Timeline</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; Treemap</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; Labeled</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; Node-Link DIagram</t>
+  </si>
+  <si>
+    <t>..&gt; Node-Link DIagram &gt; Timeline</t>
+  </si>
+  <si>
+    <t>..&gt; Node-Link DIagram &gt; Sequential</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; Embedding</t>
+  </si>
+  <si>
+    <t>..&gt; Embedding &gt; KPCA</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; List</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; Bar chart</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; Circular</t>
+  </si>
+  <si>
+    <t>Interactions</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Tagging</t>
+  </si>
+  <si>
+    <t>Interactions &gt; None</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Zooming</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Grouping</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Selection</t>
+  </si>
+  <si>
+    <t>..&gt; Selection &gt; Show details</t>
+  </si>
+  <si>
+    <t>..&gt; Selection &gt; Relevance Feedback</t>
+  </si>
+  <si>
+    <t>..&gt; Selection &gt; show nearest neighbors of selection</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Turning</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Querying</t>
+  </si>
+  <si>
+    <t>..&gt; Querying &gt; Typing in keyword, showing images with this keyword</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Filtering</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Focus + context</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Panning (+)</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Exploration</t>
+  </si>
+  <si>
+    <t>..&gt; Exploration &gt; Interactive Exploration</t>
+  </si>
+  <si>
+    <t>Tasks &gt; labeling / classification ... is this part of the Thesis?</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Editing/Organizing</t>
+  </si>
+  <si>
+    <t>..&gt; Editing/Organizing &gt; Annotation</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Managing. Providing an Overview over personal Photo Album</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Captioning</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Summarization</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Making Sense of Structure .... Summarization?</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Finding Needle in Haystack</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Storytelling</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Analytic categorization</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Comparison</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Navigation</t>
+  </si>
+  <si>
+    <t>Set size</t>
+  </si>
+  <si>
+    <t>Set size &gt; not really mentioned</t>
+  </si>
+  <si>
+    <t>Set size &gt; &lt;100</t>
+  </si>
+  <si>
+    <t>Set size &gt; Tens</t>
+  </si>
+  <si>
+    <t>Set size &gt; Millions</t>
+  </si>
+  <si>
+    <t>Set size &gt; Hundreds of Thousands</t>
+  </si>
+  <si>
+    <t>Set size &gt; Tens of Thousands</t>
+  </si>
+  <si>
+    <t>Set size &gt; Thousands</t>
+  </si>
+  <si>
+    <t>Set size &gt; Hundreds</t>
+  </si>
+  <si>
+    <t>Set size &gt; Dozens</t>
+  </si>
+  <si>
+    <t>Application Area &gt; forensics</t>
+  </si>
+  <si>
+    <t>Application Area &gt; personal photo album</t>
+  </si>
+  <si>
+    <t>Application Area &gt; medical</t>
+  </si>
+  <si>
+    <t>Application Area &gt; General purpose</t>
+  </si>
+  <si>
+    <t>Application Area &gt; generic</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; User study / Empirical Study (+)</t>
+  </si>
+  <si>
+    <t>..&gt; User study / Empirical Study (+) &gt; compare to human-generated summarizations</t>
+  </si>
+  <si>
+    <t>..&gt; User study / Empirical Study (+) &gt; compare to other method and choose better one</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; Qualitative Evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; Pyramid Approach</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; Metrics / performance Measures = Quantitative Experiments? (+)</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; Recall</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; Precision</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; diversity</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; Reconstruction Error</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; F-Measure</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; V-ROGUE</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; ROGUE</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; BLEU</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; CIDEr</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; BERTScore</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; None</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; Quantitative Experiments</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; Use case</t>
   </si>
   <si>
     <t>REFERENCES - ATTACHMENTS &gt; 20 Exploratory</t>
@@ -669,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD19"/>
+  <dimension ref="A1:FP19"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +1027,96 @@
     <col min="80" max="80" width="42" customWidth="true"/>
     <col min="81" max="81" width="51" customWidth="true"/>
     <col min="82" max="82" width="39" customWidth="true"/>
+    <col min="83" max="83" width="31" customWidth="true"/>
+    <col min="84" max="84" width="34" customWidth="true"/>
+    <col min="85" max="85" width="30" customWidth="true"/>
+    <col min="86" max="86" width="47" customWidth="true"/>
+    <col min="87" max="87" width="51" customWidth="true"/>
+    <col min="88" max="88" width="30" customWidth="true"/>
+    <col min="89" max="89" width="23" customWidth="true"/>
+    <col min="90" max="90" width="23" customWidth="true"/>
+    <col min="91" max="91" width="29" customWidth="true"/>
+    <col min="92" max="92" width="23" customWidth="true"/>
+    <col min="93" max="93" width="26" customWidth="true"/>
+    <col min="94" max="94" width="26" customWidth="true"/>
+    <col min="95" max="95" width="41" customWidth="true"/>
+    <col min="96" max="96" width="47" customWidth="true"/>
+    <col min="97" max="97" width="37" customWidth="true"/>
+    <col min="98" max="98" width="27" customWidth="true"/>
+    <col min="99" max="99" width="26" customWidth="true"/>
+    <col min="100" max="100" width="26" customWidth="true"/>
+    <col min="101" max="101" width="36" customWidth="true"/>
+    <col min="102" max="102" width="35" customWidth="true"/>
+    <col min="103" max="103" width="37" customWidth="true"/>
+    <col min="104" max="104" width="28" customWidth="true"/>
+    <col min="105" max="105" width="23" customWidth="true"/>
+    <col min="106" max="106" width="23" customWidth="true"/>
+    <col min="107" max="107" width="28" customWidth="true"/>
+    <col min="108" max="108" width="27" customWidth="true"/>
+    <col min="109" max="109" width="23" customWidth="true"/>
+    <col min="110" max="110" width="25" customWidth="true"/>
+    <col min="111" max="111" width="23" customWidth="true"/>
+    <col min="112" max="112" width="25" customWidth="true"/>
+    <col min="113" max="113" width="26" customWidth="true"/>
+    <col min="114" max="114" width="27" customWidth="true"/>
+    <col min="115" max="115" width="31" customWidth="true"/>
+    <col min="116" max="116" width="37" customWidth="true"/>
+    <col min="117" max="117" width="51" customWidth="true"/>
+    <col min="118" max="118" width="25" customWidth="true"/>
+    <col min="119" max="119" width="26" customWidth="true"/>
+    <col min="120" max="120" width="51" customWidth="true"/>
+    <col min="121" max="121" width="27" customWidth="true"/>
+    <col min="122" max="122" width="33" customWidth="true"/>
+    <col min="123" max="123" width="29" customWidth="true"/>
+    <col min="124" max="124" width="23" customWidth="true"/>
+    <col min="125" max="125" width="44" customWidth="true"/>
+    <col min="126" max="126" width="51" customWidth="true"/>
+    <col min="127" max="127" width="29" customWidth="true"/>
+    <col min="128" max="128" width="38" customWidth="true"/>
+    <col min="129" max="129" width="51" customWidth="true"/>
+    <col min="130" max="130" width="23" customWidth="true"/>
+    <col min="131" max="131" width="24" customWidth="true"/>
+    <col min="132" max="132" width="51" customWidth="true"/>
+    <col min="133" max="133" width="37" customWidth="true"/>
+    <col min="134" max="134" width="23" customWidth="true"/>
+    <col min="135" max="135" width="34" customWidth="true"/>
+    <col min="136" max="136" width="23" customWidth="true"/>
+    <col min="137" max="137" width="23" customWidth="true"/>
+    <col min="138" max="138" width="23" customWidth="true"/>
+    <col min="139" max="139" width="34" customWidth="true"/>
+    <col min="140" max="140" width="23" customWidth="true"/>
+    <col min="141" max="141" width="23" customWidth="true"/>
+    <col min="142" max="142" width="23" customWidth="true"/>
+    <col min="143" max="143" width="35" customWidth="true"/>
+    <col min="144" max="144" width="31" customWidth="true"/>
+    <col min="145" max="145" width="23" customWidth="true"/>
+    <col min="146" max="146" width="23" customWidth="true"/>
+    <col min="147" max="147" width="23" customWidth="true"/>
+    <col min="148" max="148" width="31" customWidth="true"/>
+    <col min="149" max="149" width="42" customWidth="true"/>
+    <col min="150" max="150" width="29" customWidth="true"/>
+    <col min="151" max="151" width="37" customWidth="true"/>
+    <col min="152" max="152" width="29" customWidth="true"/>
+    <col min="153" max="153" width="23" customWidth="true"/>
+    <col min="154" max="154" width="48" customWidth="true"/>
+    <col min="155" max="155" width="51" customWidth="true"/>
+    <col min="156" max="156" width="51" customWidth="true"/>
+    <col min="157" max="157" width="38" customWidth="true"/>
+    <col min="158" max="158" width="32" customWidth="true"/>
+    <col min="159" max="159" width="51" customWidth="true"/>
+    <col min="160" max="160" width="51" customWidth="true"/>
+    <col min="161" max="161" width="51" customWidth="true"/>
+    <col min="162" max="162" width="51" customWidth="true"/>
+    <col min="163" max="163" width="51" customWidth="true"/>
+    <col min="164" max="164" width="51" customWidth="true"/>
+    <col min="165" max="165" width="51" customWidth="true"/>
+    <col min="166" max="166" width="51" customWidth="true"/>
+    <col min="167" max="167" width="51" customWidth="true"/>
+    <col min="168" max="168" width="51" customWidth="true"/>
+    <col min="169" max="169" width="51" customWidth="true"/>
+    <col min="170" max="170" width="23" customWidth="true"/>
+    <col min="171" max="171" width="40" customWidth="true"/>
+    <col min="172" max="172" width="24" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1006,16 +1366,286 @@
       <c r="CD1" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -1252,18 +1882,288 @@
         <v>0</v>
       </c>
       <c r="CD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="3">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="CK2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="3">
+        <v>2</v>
+      </c>
+      <c r="CV2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="DA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF2" s="3">
+        <v>1</v>
+      </c>
+      <c r="DG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH2" s="3">
+        <v>2</v>
+      </c>
+      <c r="DI2" s="3">
+        <v>1</v>
+      </c>
+      <c r="DJ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="DK2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN2" s="3">
+        <v>1</v>
+      </c>
+      <c r="DO2" s="3">
+        <v>1</v>
+      </c>
+      <c r="DP2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS2" s="3">
+        <v>1</v>
+      </c>
+      <c r="DT2" s="3">
+        <v>2</v>
+      </c>
+      <c r="DU2" s="3">
+        <v>1</v>
+      </c>
+      <c r="DV2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW2" s="3">
+        <v>2</v>
+      </c>
+      <c r="DX2" s="3">
+        <v>2</v>
+      </c>
+      <c r="DY2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN2" s="3">
+        <v>1</v>
+      </c>
+      <c r="EO2" s="3">
+        <v>1</v>
+      </c>
+      <c r="EP2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER2" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES2" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET2" s="3">
+        <v>2</v>
+      </c>
+      <c r="EU2" s="3">
+        <v>1</v>
+      </c>
+      <c r="EV2" s="3">
+        <v>1</v>
+      </c>
+      <c r="EW2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EY2" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="FD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK2" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL2" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN2" s="3">
+        <v>2</v>
+      </c>
+      <c r="FO2" s="3">
+        <v>0</v>
+      </c>
+      <c r="FP2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1501,17 +2401,287 @@
       </c>
       <c r="CD3" s="3">
         <v>0</v>
+      </c>
+      <c r="CE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="3">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="3">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CT3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="3">
+        <v>2</v>
+      </c>
+      <c r="CW3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG3" s="3">
+        <v>1</v>
+      </c>
+      <c r="DH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ3" s="3">
+        <v>3</v>
+      </c>
+      <c r="EA3" s="3">
+        <v>3</v>
+      </c>
+      <c r="EB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="EK3" s="3">
+        <v>1</v>
+      </c>
+      <c r="EL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="ER3" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES3" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EY3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC3" s="3">
+        <v>4</v>
+      </c>
+      <c r="FD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="FK3" s="3">
+        <v>1</v>
+      </c>
+      <c r="FL3" s="3">
+        <v>1</v>
+      </c>
+      <c r="FM3" s="3">
+        <v>1</v>
+      </c>
+      <c r="FN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="FP3" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1748,18 +2918,288 @@
         <v>0</v>
       </c>
       <c r="CD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="3">
+        <v>2</v>
+      </c>
+      <c r="CI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="3">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB4" s="3">
+        <v>1</v>
+      </c>
+      <c r="DC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA4" s="3">
+        <v>1</v>
+      </c>
+      <c r="EB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP4" s="3">
+        <v>1</v>
+      </c>
+      <c r="EQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER4" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES4" s="3">
+        <v>1</v>
+      </c>
+      <c r="ET4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX4" s="3">
+        <v>2</v>
+      </c>
+      <c r="EY4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FO4" s="3">
+        <v>0</v>
+      </c>
+      <c r="FP4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -1997,17 +3437,287 @@
       </c>
       <c r="CD5" s="3">
         <v>1</v>
+      </c>
+      <c r="CE5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CH5" s="3">
+        <v>3</v>
+      </c>
+      <c r="CI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="3">
+        <v>2</v>
+      </c>
+      <c r="CS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW5" s="3">
+        <v>2</v>
+      </c>
+      <c r="CX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DU5" s="3">
+        <v>2</v>
+      </c>
+      <c r="DV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO5" s="3">
+        <v>1</v>
+      </c>
+      <c r="EP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER5" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES5" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX5" s="3">
+        <v>1</v>
+      </c>
+      <c r="EY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="FD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN5" s="3">
+        <v>1</v>
+      </c>
+      <c r="FO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="FP5" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
@@ -2244,18 +3954,288 @@
         <v>0</v>
       </c>
       <c r="CD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="3">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="3">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="3">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="3">
+        <v>3</v>
+      </c>
+      <c r="CI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="3">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW6" s="3">
+        <v>2</v>
+      </c>
+      <c r="CX6" s="3">
+        <v>1</v>
+      </c>
+      <c r="CY6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA6" s="3">
+        <v>2</v>
+      </c>
+      <c r="EB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED6" s="3">
+        <v>1</v>
+      </c>
+      <c r="EE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH6" s="3">
+        <v>1</v>
+      </c>
+      <c r="EI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM6" s="3">
+        <v>1</v>
+      </c>
+      <c r="EN6" s="3">
+        <v>1</v>
+      </c>
+      <c r="EO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP6" s="3">
+        <v>1</v>
+      </c>
+      <c r="EQ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER6" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES6" s="3">
+        <v>2</v>
+      </c>
+      <c r="ET6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX6" s="3">
+        <v>5</v>
+      </c>
+      <c r="EY6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ6" s="3">
+        <v>1</v>
+      </c>
+      <c r="FA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC6" s="3">
+        <v>2</v>
+      </c>
+      <c r="FD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH6" s="3">
+        <v>1</v>
+      </c>
+      <c r="FI6" s="3">
+        <v>1</v>
+      </c>
+      <c r="FJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FP6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -2492,18 +4472,288 @@
         <v>0</v>
       </c>
       <c r="CD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="3">
+        <v>2</v>
+      </c>
+      <c r="CI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ7" s="3">
+        <v>4</v>
+      </c>
+      <c r="DA7" s="3">
+        <v>1</v>
+      </c>
+      <c r="DB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ7" s="3">
+        <v>1</v>
+      </c>
+      <c r="DK7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL7" s="3">
+        <v>1</v>
+      </c>
+      <c r="DM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU7" s="3">
+        <v>2</v>
+      </c>
+      <c r="DV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO7" s="3">
+        <v>1</v>
+      </c>
+      <c r="EP7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER7" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES7" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX7" s="3">
+        <v>2</v>
+      </c>
+      <c r="EY7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC7" s="3">
+        <v>2</v>
+      </c>
+      <c r="FD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK7" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="FO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="FP7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -2741,17 +4991,287 @@
       </c>
       <c r="CD8" s="3">
         <v>2</v>
+      </c>
+      <c r="CE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="3">
+        <v>1</v>
+      </c>
+      <c r="CH8" s="3">
+        <v>3</v>
+      </c>
+      <c r="CI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="3">
+        <v>1</v>
+      </c>
+      <c r="CP8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="3">
+        <v>1</v>
+      </c>
+      <c r="CR8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="3">
+        <v>1</v>
+      </c>
+      <c r="DC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="3">
+        <v>1</v>
+      </c>
+      <c r="DH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI8" s="3">
+        <v>1</v>
+      </c>
+      <c r="EJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO8" s="3">
+        <v>1</v>
+      </c>
+      <c r="EP8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER8" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES8" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EY8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC8" s="3">
+        <v>4</v>
+      </c>
+      <c r="FD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF8" s="3">
+        <v>1</v>
+      </c>
+      <c r="FG8" s="3">
+        <v>1</v>
+      </c>
+      <c r="FH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK8" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="FO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="FP8" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -2988,18 +5508,288 @@
         <v>0</v>
       </c>
       <c r="CD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="3">
+        <v>1</v>
+      </c>
+      <c r="CI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="3">
+        <v>1</v>
+      </c>
+      <c r="CO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ9" s="3">
+        <v>1</v>
+      </c>
+      <c r="DA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH9" s="3">
+        <v>2</v>
+      </c>
+      <c r="DI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="3">
+        <v>1</v>
+      </c>
+      <c r="DK9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS9" s="3">
+        <v>2</v>
+      </c>
+      <c r="DT9" s="3">
+        <v>1</v>
+      </c>
+      <c r="DU9" s="3">
+        <v>1</v>
+      </c>
+      <c r="DV9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="3">
+        <v>1</v>
+      </c>
+      <c r="EH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL9" s="3">
+        <v>2</v>
+      </c>
+      <c r="EM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER9" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES9" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EY9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FP9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -3236,18 +6026,288 @@
         <v>1</v>
       </c>
       <c r="CD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="3">
+        <v>1</v>
+      </c>
+      <c r="CG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="3">
+        <v>2</v>
+      </c>
+      <c r="CI10" s="3">
+        <v>1</v>
+      </c>
+      <c r="CJ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="3">
+        <v>2</v>
+      </c>
+      <c r="CP10" s="3">
+        <v>2</v>
+      </c>
+      <c r="CQ10" s="3">
+        <v>1</v>
+      </c>
+      <c r="CR10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV10" s="3">
+        <v>1</v>
+      </c>
+      <c r="CW10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED10" s="3">
+        <v>2</v>
+      </c>
+      <c r="EE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP10" s="3">
+        <v>1</v>
+      </c>
+      <c r="EQ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER10" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES10" s="3">
+        <v>1</v>
+      </c>
+      <c r="ET10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW10" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX10" s="3">
+        <v>3</v>
+      </c>
+      <c r="EY10" s="3">
+        <v>1</v>
+      </c>
+      <c r="EZ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FO10" s="3">
+        <v>0</v>
+      </c>
+      <c r="FP10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -3484,18 +6544,288 @@
         <v>0</v>
       </c>
       <c r="CD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="3">
+        <v>1</v>
+      </c>
+      <c r="CI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS11" s="3">
+        <v>1</v>
+      </c>
+      <c r="CT11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG11" s="3">
+        <v>1</v>
+      </c>
+      <c r="DH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY11" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER11" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES11" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW11" s="3">
+        <v>1</v>
+      </c>
+      <c r="EX11" s="3">
+        <v>0</v>
+      </c>
+      <c r="EY11" s="3">
+        <v>1</v>
+      </c>
+      <c r="EZ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB11" s="3">
+        <v>2</v>
+      </c>
+      <c r="FC11" s="3">
+        <v>2</v>
+      </c>
+      <c r="FD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK11" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL11" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN11" s="3">
+        <v>0</v>
+      </c>
+      <c r="FO11" s="3">
+        <v>0</v>
+      </c>
+      <c r="FP11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -3732,18 +7062,288 @@
         <v>0</v>
       </c>
       <c r="CD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH12" s="3">
+        <v>1</v>
+      </c>
+      <c r="CI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL12" s="3">
+        <v>1</v>
+      </c>
+      <c r="CM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY12" s="3">
+        <v>1</v>
+      </c>
+      <c r="CZ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY12" s="3">
+        <v>1</v>
+      </c>
+      <c r="DZ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN12" s="3">
+        <v>1</v>
+      </c>
+      <c r="EO12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER12" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES12" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW12" s="3">
+        <v>1</v>
+      </c>
+      <c r="EX12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EY12" s="3">
+        <v>1</v>
+      </c>
+      <c r="EZ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC12" s="3">
+        <v>2</v>
+      </c>
+      <c r="FD12" s="3">
+        <v>1</v>
+      </c>
+      <c r="FE12" s="3">
+        <v>1</v>
+      </c>
+      <c r="FF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN12" s="3">
+        <v>0</v>
+      </c>
+      <c r="FO12" s="3">
+        <v>2</v>
+      </c>
+      <c r="FP12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -3980,18 +7580,288 @@
         <v>0</v>
       </c>
       <c r="CD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH13" s="3">
+        <v>3</v>
+      </c>
+      <c r="CI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL13" s="3">
+        <v>1</v>
+      </c>
+      <c r="CM13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS13" s="3">
+        <v>1</v>
+      </c>
+      <c r="CT13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV13" s="3">
+        <v>1</v>
+      </c>
+      <c r="CW13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB13" s="3">
+        <v>1</v>
+      </c>
+      <c r="DC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG13" s="3">
+        <v>1</v>
+      </c>
+      <c r="DH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN13" s="3">
+        <v>1</v>
+      </c>
+      <c r="EO13" s="3">
+        <v>1</v>
+      </c>
+      <c r="EP13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER13" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES13" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX13" s="3">
+        <v>2</v>
+      </c>
+      <c r="EY13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ13" s="3">
+        <v>1</v>
+      </c>
+      <c r="FA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC13" s="3">
+        <v>2</v>
+      </c>
+      <c r="FD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="FO13" s="3">
+        <v>1</v>
+      </c>
+      <c r="FP13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -4228,18 +8098,288 @@
         <v>0</v>
       </c>
       <c r="CD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE14" s="3">
+        <v>5</v>
+      </c>
+      <c r="CF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH14" s="3">
+        <v>1</v>
+      </c>
+      <c r="CI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL14" s="3">
+        <v>1</v>
+      </c>
+      <c r="CM14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN14" s="3">
+        <v>2</v>
+      </c>
+      <c r="CO14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT14" s="3">
+        <v>1</v>
+      </c>
+      <c r="CU14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB14" s="3">
+        <v>1</v>
+      </c>
+      <c r="DC14" s="3">
+        <v>2</v>
+      </c>
+      <c r="DD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ14" s="3">
+        <v>1</v>
+      </c>
+      <c r="DK14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ14" s="3">
+        <v>2</v>
+      </c>
+      <c r="DR14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU14" s="3">
+        <v>1</v>
+      </c>
+      <c r="DV14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF14" s="3">
+        <v>1</v>
+      </c>
+      <c r="EG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM14" s="3">
+        <v>1</v>
+      </c>
+      <c r="EN14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER14" s="3">
+        <v>1</v>
+      </c>
+      <c r="ES14" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX14" s="3">
+        <v>1</v>
+      </c>
+      <c r="EY14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FO14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FP14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -4476,18 +8616,288 @@
         <v>0</v>
       </c>
       <c r="CD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH15" s="3">
+        <v>2</v>
+      </c>
+      <c r="CI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK15" s="3">
+        <v>1</v>
+      </c>
+      <c r="CL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM15" s="3">
+        <v>4</v>
+      </c>
+      <c r="CN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU15" s="3">
+        <v>3</v>
+      </c>
+      <c r="CV15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE15" s="3">
+        <v>1</v>
+      </c>
+      <c r="DF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ15" s="3">
+        <v>2</v>
+      </c>
+      <c r="DK15" s="3">
+        <v>1</v>
+      </c>
+      <c r="DL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM15" s="3">
+        <v>1</v>
+      </c>
+      <c r="DN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO15" s="3">
+        <v>3</v>
+      </c>
+      <c r="DP15" s="3">
+        <v>1</v>
+      </c>
+      <c r="DQ15" s="3">
+        <v>1</v>
+      </c>
+      <c r="DR15" s="3">
+        <v>1</v>
+      </c>
+      <c r="DS15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT15" s="3">
+        <v>1</v>
+      </c>
+      <c r="DU15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO15" s="3">
+        <v>1</v>
+      </c>
+      <c r="EP15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER15" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES15" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX15" s="3">
+        <v>3</v>
+      </c>
+      <c r="EY15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC15" s="3">
+        <v>1</v>
+      </c>
+      <c r="FD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FP15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -4724,18 +9134,288 @@
         <v>0</v>
       </c>
       <c r="CD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO16" s="3">
+        <v>2</v>
+      </c>
+      <c r="CP16" s="3">
+        <v>1</v>
+      </c>
+      <c r="CQ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA16" s="3">
+        <v>1</v>
+      </c>
+      <c r="EB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ16" s="3">
+        <v>1</v>
+      </c>
+      <c r="EK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER16" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES16" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX16" s="3">
+        <v>2</v>
+      </c>
+      <c r="EY16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA16" s="3">
+        <v>2</v>
+      </c>
+      <c r="FB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="FD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="FO16" s="3">
+        <v>2</v>
+      </c>
+      <c r="FP16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -4972,18 +9652,288 @@
         <v>0</v>
       </c>
       <c r="CD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH17" s="3">
+        <v>2</v>
+      </c>
+      <c r="CI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS17" s="3">
+        <v>1</v>
+      </c>
+      <c r="CT17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB17" s="3">
+        <v>1</v>
+      </c>
+      <c r="DC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL17" s="3">
+        <v>1</v>
+      </c>
+      <c r="EM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER17" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES17" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EY17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA17" s="3">
+        <v>3</v>
+      </c>
+      <c r="FB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="FD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE17" s="3">
+        <v>1</v>
+      </c>
+      <c r="FF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK17" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN17" s="3">
+        <v>0</v>
+      </c>
+      <c r="FO17" s="3">
+        <v>0</v>
+      </c>
+      <c r="FP17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -5220,18 +10170,288 @@
         <v>0</v>
       </c>
       <c r="CD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH18" s="3">
+        <v>1</v>
+      </c>
+      <c r="CI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL18" s="3">
+        <v>2</v>
+      </c>
+      <c r="CM18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV18" s="3">
+        <v>1</v>
+      </c>
+      <c r="DW18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB18" s="3">
+        <v>1</v>
+      </c>
+      <c r="EC18" s="3">
+        <v>1</v>
+      </c>
+      <c r="ED18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE18" s="3">
+        <v>1</v>
+      </c>
+      <c r="EF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL18" s="3">
+        <v>1</v>
+      </c>
+      <c r="EM18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER18" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES18" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX18" s="3">
+        <v>1</v>
+      </c>
+      <c r="EY18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA18" s="3">
+        <v>1</v>
+      </c>
+      <c r="FB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="FD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG18" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK18" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL18" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM18" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN18" s="3">
+        <v>1</v>
+      </c>
+      <c r="FO18" s="3">
+        <v>0</v>
+      </c>
+      <c r="FP18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -5468,6 +10688,276 @@
         <v>0</v>
       </c>
       <c r="CD19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH19" s="3">
+        <v>1</v>
+      </c>
+      <c r="CI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO19" s="3">
+        <v>2</v>
+      </c>
+      <c r="CP19" s="3">
+        <v>1</v>
+      </c>
+      <c r="CQ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY19" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER19" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES19" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX19" s="3">
+        <v>1</v>
+      </c>
+      <c r="EY19" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA19" s="3">
+        <v>1</v>
+      </c>
+      <c r="FB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="FD19" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF19" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG19" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH19" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK19" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL19" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM19" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN19" s="3">
+        <v>0</v>
+      </c>
+      <c r="FO19" s="3">
+        <v>1</v>
+      </c>
+      <c r="FP19" s="3">
         <v>0</v>
       </c>
     </row>

--- a/assets/data/Document Profiles.xlsx
+++ b/assets/data/Document Profiles.xlsx
@@ -36,10 +36,19 @@
     <t>..&gt; Metadata &gt; Creator</t>
   </si>
   <si>
+    <t>Input Modalities &gt; Image</t>
+  </si>
+  <si>
+    <t>Input Modalities &gt; Text / Tags / Categories (+) (+)</t>
+  </si>
+  <si>
+    <t>..&gt; Text / Tags / Categories (+) (+) &gt; Comments</t>
+  </si>
+  <si>
     <t>Input Modalities &gt; Input Shape (predefined collage shape)</t>
   </si>
   <si>
-    <t>Input Modalities &gt; Image</t>
+    <t>Input Modalities &gt; File structure</t>
   </si>
   <si>
     <t>Input Modalities &gt; Predefined Story graph (+)</t>
@@ -51,37 +60,49 @@
     <t>..&gt; Supplementary Data &gt;  Popularity</t>
   </si>
   <si>
-    <t>Input Modalities &gt; Text / Tags / Categories (+) (+)</t>
-  </si>
-  <si>
-    <t>..&gt; Text / Tags / Categories (+) (+) &gt; Comments</t>
-  </si>
-  <si>
-    <t>Input Modalities &gt; File structure</t>
-  </si>
-  <si>
     <t>Derived Data</t>
   </si>
   <si>
     <t>Derived Data &gt; Image Features / Visual Features (+)</t>
   </si>
   <si>
+    <t>..&gt; Image Features / Visual Features (+) &gt; Bag of Visual elements/words BoW</t>
+  </si>
+  <si>
+    <t>..&gt; Bag of Visual elements/words BoW &gt; SIFT Features</t>
+  </si>
+  <si>
     <t>..&gt; Image Features / Visual Features (+) &gt; GIST (Global Feature??)</t>
   </si>
   <si>
+    <t>..&gt; Image Features / Visual Features (+) &gt; Global Image Features</t>
+  </si>
+  <si>
     <t>..&gt; Image Features / Visual Features (+) &gt; Neural Net produced feature</t>
   </si>
   <si>
     <t>..&gt; Neural Net produced feature &gt; RMAC</t>
   </si>
   <si>
-    <t>..&gt; Image Features / Visual Features (+) &gt; Bag of Visual elements/words BoW</t>
-  </si>
-  <si>
-    <t>..&gt; Bag of Visual elements/words BoW &gt; SIFT Features</t>
-  </si>
-  <si>
-    <t>..&gt; Image Features / Visual Features (+) &gt; Global Image Features</t>
+    <t>Derived Data &gt; Blur for Photo Quality Measurement</t>
+  </si>
+  <si>
+    <t>..&gt; Graph &gt; Distance Graph</t>
+  </si>
+  <si>
+    <t>..&gt; Graph &gt; Hierachical Tree from Clustering</t>
+  </si>
+  <si>
+    <t>..&gt; Graph &gt; Similarity Graph</t>
+  </si>
+  <si>
+    <t>..&gt; Graph &gt; Interval Graph</t>
+  </si>
+  <si>
+    <t>..&gt; Graph &gt; directed graph</t>
+  </si>
+  <si>
+    <t>..&gt; Graph &gt; story graph</t>
   </si>
   <si>
     <t>Derived Data &gt; Quartets... Summarization or derived Data?</t>
@@ -93,15 +114,42 @@
     <t>..&gt; Scene Graphs &gt; Combined Scene Graph</t>
   </si>
   <si>
+    <t>Derived Data &gt; Histograms</t>
+  </si>
+  <si>
+    <t>..&gt; Histograms &gt; RGB histogram (color)</t>
+  </si>
+  <si>
+    <t>..&gt; Histograms &gt; Local Binary Patternd (LBP) histogram (texture)</t>
+  </si>
+  <si>
+    <t>..&gt; Histograms &gt; Sobel histogram (edges)</t>
+  </si>
+  <si>
+    <t>..&gt; Histograms &gt; Gray Histogram</t>
+  </si>
+  <si>
+    <t>Derived Data &gt; DoF Evaluation for Photo Quality Measurement</t>
+  </si>
+  <si>
     <t>Derived Data &gt; Categorization Tree</t>
   </si>
   <si>
+    <t>Derived Data &gt; Classical image features</t>
+  </si>
+  <si>
     <t>Derived Data &gt; Tags Created</t>
   </si>
   <si>
+    <t>Derived Data &gt; Distance Graph</t>
+  </si>
+  <si>
     <t>Derived Data &gt; Aesthetic Score</t>
   </si>
   <si>
+    <t>Derived Data &gt; Color Histograms</t>
+  </si>
+  <si>
     <t>Derived Data &gt; Importance Score</t>
   </si>
   <si>
@@ -120,33 +168,9 @@
     <t>Derived Data &gt; Concepts created by NN</t>
   </si>
   <si>
-    <t>Derived Data &gt; Blur for Photo Quality Measurement</t>
-  </si>
-  <si>
-    <t>..&gt; Graph &gt; Distance Graph</t>
-  </si>
-  <si>
-    <t>..&gt; Graph &gt; Similarity Graph</t>
-  </si>
-  <si>
-    <t>..&gt; Graph &gt; Hierachical Tree from Clustering</t>
-  </si>
-  <si>
-    <t>..&gt; Graph &gt; directed graph</t>
-  </si>
-  <si>
-    <t>..&gt; Graph &gt; story graph</t>
-  </si>
-  <si>
-    <t>..&gt; Graph &gt; Interval Graph</t>
-  </si>
-  <si>
     <t>Derived Data &gt; Distance Matrix</t>
   </si>
   <si>
-    <t>Derived Data &gt; DoF Evaluation for Photo Quality Measurement</t>
-  </si>
-  <si>
     <t>Derived Data &gt; Image Aesthetic Appeal (Aspect Ratio, colorfulness, luminacne, sharpness)</t>
   </si>
   <si>
@@ -159,21 +183,6 @@
     <t>..&gt; Semantics &gt; Semantic Feature Vector from NN</t>
   </si>
   <si>
-    <t>Derived Data &gt; Histograms</t>
-  </si>
-  <si>
-    <t>..&gt; Histograms &gt; Local Binary Patternd (LBP) histogram (texture)</t>
-  </si>
-  <si>
-    <t>..&gt; Histograms &gt; Sobel histogram (edges)</t>
-  </si>
-  <si>
-    <t>..&gt; Histograms &gt; RGB histogram (color)</t>
-  </si>
-  <si>
-    <t>..&gt; Histograms &gt; Gray Histogram</t>
-  </si>
-  <si>
     <t>Derived Data &gt; Histogram intersection kernel HIK</t>
   </si>
   <si>
@@ -192,21 +201,27 @@
     <t>Derived Data &gt; Affect/sentiment data</t>
   </si>
   <si>
-    <t>Derived Data &gt; Classical image features</t>
-  </si>
-  <si>
-    <t>Derived Data &gt; Distance Graph</t>
-  </si>
-  <si>
-    <t>Derived Data &gt; Color Histograms</t>
-  </si>
-  <si>
     <t>Summarization</t>
   </si>
   <si>
     <t>Summarization &gt; User Selection</t>
   </si>
   <si>
+    <t>Summarization &gt; Clustering</t>
+  </si>
+  <si>
+    <t>..&gt; Clustering &gt; priority queue based time clustering</t>
+  </si>
+  <si>
+    <t>..&gt; Clustering &gt; Hierachical Clustering</t>
+  </si>
+  <si>
+    <t>..&gt; Clustering &gt; affininty  propagation clustering</t>
+  </si>
+  <si>
+    <t>..&gt; Clustering &gt; kernel k-means</t>
+  </si>
+  <si>
     <t>Summarization &gt; Decompose the categorization tree</t>
   </si>
   <si>
@@ -216,30 +231,15 @@
     <t>..&gt; Sub-Graph Selection (+) &gt; Maximum Common Subgraph</t>
   </si>
   <si>
+    <t>..&gt; Sub-Graph Selection (+) &gt; Subgraph decomposition of Simliarity Graph into concept subgraphs/clusters</t>
+  </si>
+  <si>
     <t>..&gt; Sub-Graph Selection (+) &gt; constructing the story graph???? optimizing for that</t>
   </si>
   <si>
     <t>..&gt; Sub-Graph Selection (+) &gt; subset selection DS3?</t>
   </si>
   <si>
-    <t>..&gt; Sub-Graph Selection (+) &gt; Subgraph decomposition of Simliarity Graph into concept subgraphs/clusters</t>
-  </si>
-  <si>
-    <t>Summarization &gt; Clustering</t>
-  </si>
-  <si>
-    <t>..&gt; Clustering &gt; Hierachical Clustering</t>
-  </si>
-  <si>
-    <t>..&gt; Clustering &gt; affininty  propagation clustering</t>
-  </si>
-  <si>
-    <t>..&gt; Clustering &gt; priority queue based time clustering</t>
-  </si>
-  <si>
-    <t>..&gt; Clustering &gt; kernel k-means</t>
-  </si>
-  <si>
     <t>Summarization &gt; Optimization for lowest reconstruction error</t>
   </si>
   <si>
@@ -264,33 +264,48 @@
     <t>Summarizing Entities &gt; Marks</t>
   </si>
   <si>
+    <t>Summarizing Entities &gt; Representative Images</t>
+  </si>
+  <si>
+    <t>..&gt; Representative Images &gt; for fictional stories</t>
+  </si>
+  <si>
     <t>Summarizing Entities &gt; Captions</t>
   </si>
   <si>
+    <t>Summarizing Entities &gt; None</t>
+  </si>
+  <si>
     <t>Summarizing Entities &gt; Tags</t>
   </si>
   <si>
-    <t>Summarizing Entities &gt; Representative Images</t>
-  </si>
-  <si>
-    <t>..&gt; Representative Images &gt; for fictional stories</t>
-  </si>
-  <si>
-    <t>Summarizing Entities &gt; None</t>
-  </si>
-  <si>
     <t>Visual Layout</t>
   </si>
   <si>
     <t>Visual Layout &gt; Grid</t>
   </si>
   <si>
+    <t>Visual Layout &gt; Node-Link DIagram</t>
+  </si>
+  <si>
+    <t>..&gt; Node-Link DIagram &gt; Timeline</t>
+  </si>
+  <si>
+    <t>..&gt; Node-Link DIagram &gt; Sequential</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; None OR NOT STATED</t>
+  </si>
+  <si>
     <t>Visual Layout &gt; Word cloud</t>
   </si>
   <si>
     <t>Visual Layout &gt; Map</t>
   </si>
   <si>
+    <t>Visual Layout &gt; Treemap</t>
+  </si>
+  <si>
     <t>Visual Layout &gt; Collage</t>
   </si>
   <si>
@@ -300,45 +315,162 @@
     <t>..&gt; Collage &gt; Collage with Tags / Text</t>
   </si>
   <si>
+    <t>Visual Layout &gt; Labeled</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; Embedding</t>
+  </si>
+  <si>
+    <t>..&gt; Embedding &gt; KPCA</t>
+  </si>
+  <si>
+    <t>Visual Layout &gt; List</t>
+  </si>
+  <si>
     <t>Visual Layout &gt; images surrounding tag cloud</t>
   </si>
   <si>
-    <t>Visual Layout &gt; None OR NOT STATED</t>
-  </si>
-  <si>
     <t>Visual Layout &gt; Timeline</t>
   </si>
   <si>
-    <t>Visual Layout &gt; Treemap</t>
-  </si>
-  <si>
-    <t>Visual Layout &gt; Labeled</t>
-  </si>
-  <si>
-    <t>Visual Layout &gt; Node-Link DIagram</t>
-  </si>
-  <si>
-    <t>..&gt; Node-Link DIagram &gt; Timeline</t>
-  </si>
-  <si>
-    <t>..&gt; Node-Link DIagram &gt; Sequential</t>
-  </si>
-  <si>
-    <t>Visual Layout &gt; Embedding</t>
-  </si>
-  <si>
-    <t>..&gt; Embedding &gt; KPCA</t>
-  </si>
-  <si>
-    <t>Visual Layout &gt; List</t>
-  </si>
-  <si>
     <t>Visual Layout &gt; Bar chart</t>
   </si>
   <si>
     <t>Visual Layout &gt; Circular</t>
   </si>
   <si>
+    <t>Tasks &gt; Exploration</t>
+  </si>
+  <si>
+    <t>..&gt; Exploration &gt; Interactive Exploration</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Managing. Providing an Overview over personal Photo Album</t>
+  </si>
+  <si>
+    <t>Tasks &gt; labeling / classification ... is this part of the Thesis?</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Editing/Organizing</t>
+  </si>
+  <si>
+    <t>..&gt; Editing/Organizing &gt; Annotation</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Captioning</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Summarization</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Making Sense of Structure .... Summarization?</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Finding Needle in Haystack</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Storytelling</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Analytic categorization</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Comparison</t>
+  </si>
+  <si>
+    <t>Tasks &gt; Navigation</t>
+  </si>
+  <si>
+    <t>Set size</t>
+  </si>
+  <si>
+    <t>Set size &gt; Tens of Thousands</t>
+  </si>
+  <si>
+    <t>Set size &gt; not really mentioned</t>
+  </si>
+  <si>
+    <t>Set size &gt; Thousands</t>
+  </si>
+  <si>
+    <t>Set size &gt; &lt;100</t>
+  </si>
+  <si>
+    <t>Set size &gt; Tens</t>
+  </si>
+  <si>
+    <t>Set size &gt; Millions</t>
+  </si>
+  <si>
+    <t>Set size &gt; Hundreds of Thousands</t>
+  </si>
+  <si>
+    <t>Set size &gt; Hundreds</t>
+  </si>
+  <si>
+    <t>Set size &gt; Dozens</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; User study / Empirical Study (+)</t>
+  </si>
+  <si>
+    <t>..&gt; User study / Empirical Study (+) &gt; compare to other method and choose better one</t>
+  </si>
+  <si>
+    <t>..&gt; User study / Empirical Study (+) &gt; compare to human-generated summarizations</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; Metrics / performance Measures = Quantitative Experiments? (+)</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; Recall</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; Precision</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; diversity</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; Reconstruction Error</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; F-Measure</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; V-ROGUE</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; ROGUE</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; BLEU</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; CIDEr</t>
+  </si>
+  <si>
+    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; BERTScore</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; Qualitative Evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; Quantitative Experiments</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; None</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; Pyramid Approach</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; Use case</t>
+  </si>
+  <si>
     <t>Interactions</t>
   </si>
   <si>
@@ -375,160 +507,28 @@
     <t>..&gt; Querying &gt; Typing in keyword, showing images with this keyword</t>
   </si>
   <si>
+    <t>Interactions &gt; Panning (+)</t>
+  </si>
+  <si>
     <t>Interactions &gt; Filtering</t>
   </si>
   <si>
     <t>Interactions &gt; Focus + context</t>
   </si>
   <si>
-    <t>Interactions &gt; Panning (+)</t>
-  </si>
-  <si>
-    <t>Tasks &gt; Exploration</t>
-  </si>
-  <si>
-    <t>..&gt; Exploration &gt; Interactive Exploration</t>
-  </si>
-  <si>
-    <t>Tasks &gt; labeling / classification ... is this part of the Thesis?</t>
-  </si>
-  <si>
-    <t>Tasks &gt; Editing/Organizing</t>
-  </si>
-  <si>
-    <t>..&gt; Editing/Organizing &gt; Annotation</t>
-  </si>
-  <si>
-    <t>Tasks &gt; Managing. Providing an Overview over personal Photo Album</t>
-  </si>
-  <si>
-    <t>Tasks &gt; Captioning</t>
-  </si>
-  <si>
-    <t>Tasks &gt; Summarization</t>
-  </si>
-  <si>
-    <t>Tasks &gt; Making Sense of Structure .... Summarization?</t>
-  </si>
-  <si>
-    <t>Tasks &gt; Finding Needle in Haystack</t>
-  </si>
-  <si>
-    <t>Tasks &gt; Storytelling</t>
-  </si>
-  <si>
-    <t>Tasks &gt; Analytic categorization</t>
-  </si>
-  <si>
-    <t>Tasks &gt; Comparison</t>
-  </si>
-  <si>
-    <t>Tasks &gt; Navigation</t>
-  </si>
-  <si>
-    <t>Set size</t>
-  </si>
-  <si>
-    <t>Set size &gt; not really mentioned</t>
-  </si>
-  <si>
-    <t>Set size &gt; &lt;100</t>
-  </si>
-  <si>
-    <t>Set size &gt; Tens</t>
-  </si>
-  <si>
-    <t>Set size &gt; Millions</t>
-  </si>
-  <si>
-    <t>Set size &gt; Hundreds of Thousands</t>
-  </si>
-  <si>
-    <t>Set size &gt; Tens of Thousands</t>
-  </si>
-  <si>
-    <t>Set size &gt; Thousands</t>
-  </si>
-  <si>
-    <t>Set size &gt; Hundreds</t>
-  </si>
-  <si>
-    <t>Set size &gt; Dozens</t>
-  </si>
-  <si>
     <t>Application Area &gt; forensics</t>
   </si>
   <si>
+    <t>Application Area &gt; medical</t>
+  </si>
+  <si>
     <t>Application Area &gt; personal photo album</t>
   </si>
   <si>
-    <t>Application Area &gt; medical</t>
-  </si>
-  <si>
     <t>Application Area &gt; General purpose</t>
   </si>
   <si>
     <t>Application Area &gt; generic</t>
-  </si>
-  <si>
-    <t>Evaluation</t>
-  </si>
-  <si>
-    <t>Evaluation &gt; User study / Empirical Study (+)</t>
-  </si>
-  <si>
-    <t>..&gt; User study / Empirical Study (+) &gt; compare to human-generated summarizations</t>
-  </si>
-  <si>
-    <t>..&gt; User study / Empirical Study (+) &gt; compare to other method and choose better one</t>
-  </si>
-  <si>
-    <t>Evaluation &gt; Qualitative Evaluation</t>
-  </si>
-  <si>
-    <t>Evaluation &gt; Pyramid Approach</t>
-  </si>
-  <si>
-    <t>Evaluation &gt; Metrics / performance Measures = Quantitative Experiments? (+)</t>
-  </si>
-  <si>
-    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; Recall</t>
-  </si>
-  <si>
-    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; Precision</t>
-  </si>
-  <si>
-    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; diversity</t>
-  </si>
-  <si>
-    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; Reconstruction Error</t>
-  </si>
-  <si>
-    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; F-Measure</t>
-  </si>
-  <si>
-    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; V-ROGUE</t>
-  </si>
-  <si>
-    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; ROGUE</t>
-  </si>
-  <si>
-    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; BLEU</t>
-  </si>
-  <si>
-    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; CIDEr</t>
-  </si>
-  <si>
-    <t>..&gt; Metrics / performance Measures = Quantitative Experiments? (+) &gt; BERTScore</t>
-  </si>
-  <si>
-    <t>Evaluation &gt; None</t>
-  </si>
-  <si>
-    <t>Evaluation &gt; Quantitative Experiments</t>
-  </si>
-  <si>
-    <t>Evaluation &gt; Use case</t>
   </si>
   <si>
     <t>REFERENCES - ATTACHMENTS &gt; 20 Exploratory</t>
@@ -952,74 +952,74 @@
     <col min="5" max="5" width="33" customWidth="true"/>
     <col min="6" max="6" width="31" customWidth="true"/>
     <col min="7" max="7" width="25" customWidth="true"/>
-    <col min="8" max="8" width="51" customWidth="true"/>
-    <col min="9" max="9" width="27" customWidth="true"/>
-    <col min="10" max="10" width="48" customWidth="true"/>
-    <col min="11" max="11" width="40" customWidth="true"/>
-    <col min="12" max="12" width="39" customWidth="true"/>
-    <col min="13" max="13" width="51" customWidth="true"/>
-    <col min="14" max="14" width="50" customWidth="true"/>
-    <col min="15" max="15" width="36" customWidth="true"/>
+    <col min="8" max="8" width="27" customWidth="true"/>
+    <col min="9" max="9" width="51" customWidth="true"/>
+    <col min="10" max="10" width="50" customWidth="true"/>
+    <col min="11" max="11" width="51" customWidth="true"/>
+    <col min="12" max="12" width="36" customWidth="true"/>
+    <col min="13" max="13" width="48" customWidth="true"/>
+    <col min="14" max="14" width="40" customWidth="true"/>
+    <col min="15" max="15" width="39" customWidth="true"/>
     <col min="16" max="16" width="23" customWidth="true"/>
     <col min="17" max="17" width="51" customWidth="true"/>
     <col min="18" max="18" width="51" customWidth="true"/>
     <col min="19" max="19" width="51" customWidth="true"/>
-    <col min="20" max="20" width="41" customWidth="true"/>
+    <col min="20" max="20" width="51" customWidth="true"/>
     <col min="21" max="21" width="51" customWidth="true"/>
     <col min="22" max="22" width="51" customWidth="true"/>
-    <col min="23" max="23" width="51" customWidth="true"/>
+    <col min="23" max="23" width="41" customWidth="true"/>
     <col min="24" max="24" width="51" customWidth="true"/>
-    <col min="25" max="25" width="30" customWidth="true"/>
-    <col min="26" max="26" width="42" customWidth="true"/>
-    <col min="27" max="27" width="37" customWidth="true"/>
-    <col min="28" max="28" width="30" customWidth="true"/>
-    <col min="29" max="29" width="33" customWidth="true"/>
-    <col min="30" max="30" width="34" customWidth="true"/>
-    <col min="31" max="31" width="33" customWidth="true"/>
-    <col min="32" max="32" width="39" customWidth="true"/>
-    <col min="33" max="33" width="26" customWidth="true"/>
-    <col min="34" max="34" width="40" customWidth="true"/>
-    <col min="35" max="35" width="40" customWidth="true"/>
+    <col min="25" max="25" width="29" customWidth="true"/>
+    <col min="26" max="26" width="47" customWidth="true"/>
+    <col min="27" max="27" width="31" customWidth="true"/>
+    <col min="28" max="28" width="29" customWidth="true"/>
+    <col min="29" max="29" width="29" customWidth="true"/>
+    <col min="30" max="30" width="26" customWidth="true"/>
+    <col min="31" max="31" width="51" customWidth="true"/>
+    <col min="32" max="32" width="30" customWidth="true"/>
+    <col min="33" max="33" width="42" customWidth="true"/>
+    <col min="34" max="34" width="28" customWidth="true"/>
+    <col min="35" max="35" width="41" customWidth="true"/>
     <col min="36" max="36" width="51" customWidth="true"/>
-    <col min="37" max="37" width="29" customWidth="true"/>
-    <col min="38" max="38" width="31" customWidth="true"/>
-    <col min="39" max="39" width="47" customWidth="true"/>
-    <col min="40" max="40" width="29" customWidth="true"/>
-    <col min="41" max="41" width="26" customWidth="true"/>
-    <col min="42" max="42" width="29" customWidth="true"/>
-    <col min="43" max="43" width="33" customWidth="true"/>
-    <col min="44" max="44" width="51" customWidth="true"/>
-    <col min="45" max="45" width="51" customWidth="true"/>
-    <col min="46" max="46" width="51" customWidth="true"/>
-    <col min="47" max="47" width="27" customWidth="true"/>
-    <col min="48" max="48" width="50" customWidth="true"/>
-    <col min="49" max="49" width="28" customWidth="true"/>
-    <col min="50" max="50" width="51" customWidth="true"/>
-    <col min="51" max="51" width="43" customWidth="true"/>
-    <col min="52" max="52" width="41" customWidth="true"/>
-    <col min="53" max="53" width="34" customWidth="true"/>
+    <col min="37" max="37" width="43" customWidth="true"/>
+    <col min="38" max="38" width="34" customWidth="true"/>
+    <col min="39" max="39" width="51" customWidth="true"/>
+    <col min="40" max="40" width="37" customWidth="true"/>
+    <col min="41" max="41" width="42" customWidth="true"/>
+    <col min="42" max="42" width="30" customWidth="true"/>
+    <col min="43" max="43" width="32" customWidth="true"/>
+    <col min="44" max="44" width="33" customWidth="true"/>
+    <col min="45" max="45" width="34" customWidth="true"/>
+    <col min="46" max="46" width="34" customWidth="true"/>
+    <col min="47" max="47" width="33" customWidth="true"/>
+    <col min="48" max="48" width="39" customWidth="true"/>
+    <col min="49" max="49" width="26" customWidth="true"/>
+    <col min="50" max="50" width="40" customWidth="true"/>
+    <col min="51" max="51" width="40" customWidth="true"/>
+    <col min="52" max="52" width="33" customWidth="true"/>
+    <col min="53" max="53" width="51" customWidth="true"/>
     <col min="54" max="54" width="51" customWidth="true"/>
-    <col min="55" max="55" width="36" customWidth="true"/>
-    <col min="56" max="56" width="34" customWidth="true"/>
-    <col min="57" max="57" width="35" customWidth="true"/>
-    <col min="58" max="58" width="29" customWidth="true"/>
-    <col min="59" max="59" width="39" customWidth="true"/>
-    <col min="60" max="60" width="42" customWidth="true"/>
-    <col min="61" max="61" width="32" customWidth="true"/>
-    <col min="62" max="62" width="34" customWidth="true"/>
+    <col min="55" max="55" width="27" customWidth="true"/>
+    <col min="56" max="56" width="50" customWidth="true"/>
+    <col min="57" max="57" width="51" customWidth="true"/>
+    <col min="58" max="58" width="36" customWidth="true"/>
+    <col min="59" max="59" width="34" customWidth="true"/>
+    <col min="60" max="60" width="35" customWidth="true"/>
+    <col min="61" max="61" width="29" customWidth="true"/>
+    <col min="62" max="62" width="39" customWidth="true"/>
     <col min="63" max="63" width="23" customWidth="true"/>
     <col min="64" max="64" width="33" customWidth="true"/>
-    <col min="65" max="65" width="51" customWidth="true"/>
-    <col min="66" max="66" width="42" customWidth="true"/>
-    <col min="67" max="67" width="51" customWidth="true"/>
+    <col min="65" max="65" width="29" customWidth="true"/>
+    <col min="66" max="66" width="51" customWidth="true"/>
+    <col min="67" max="67" width="42" customWidth="true"/>
     <col min="68" max="68" width="51" customWidth="true"/>
-    <col min="69" max="69" width="51" customWidth="true"/>
+    <col min="69" max="69" width="34" customWidth="true"/>
     <col min="70" max="70" width="51" customWidth="true"/>
-    <col min="71" max="71" width="29" customWidth="true"/>
-    <col min="72" max="72" width="42" customWidth="true"/>
+    <col min="71" max="71" width="42" customWidth="true"/>
+    <col min="72" max="72" width="51" customWidth="true"/>
     <col min="73" max="73" width="51" customWidth="true"/>
     <col min="74" max="74" width="51" customWidth="true"/>
-    <col min="75" max="75" width="34" customWidth="true"/>
+    <col min="75" max="75" width="51" customWidth="true"/>
     <col min="76" max="76" width="51" customWidth="true"/>
     <col min="77" max="77" width="40" customWidth="true"/>
     <col min="78" max="78" width="26" customWidth="true"/>
@@ -1028,95 +1028,95 @@
     <col min="81" max="81" width="51" customWidth="true"/>
     <col min="82" max="82" width="39" customWidth="true"/>
     <col min="83" max="83" width="31" customWidth="true"/>
-    <col min="84" max="84" width="34" customWidth="true"/>
-    <col min="85" max="85" width="30" customWidth="true"/>
-    <col min="86" max="86" width="47" customWidth="true"/>
-    <col min="87" max="87" width="51" customWidth="true"/>
+    <col min="84" max="84" width="47" customWidth="true"/>
+    <col min="85" max="85" width="51" customWidth="true"/>
+    <col min="86" max="86" width="34" customWidth="true"/>
+    <col min="87" max="87" width="30" customWidth="true"/>
     <col min="88" max="88" width="30" customWidth="true"/>
     <col min="89" max="89" width="23" customWidth="true"/>
     <col min="90" max="90" width="23" customWidth="true"/>
-    <col min="91" max="91" width="29" customWidth="true"/>
-    <col min="92" max="92" width="23" customWidth="true"/>
-    <col min="93" max="93" width="26" customWidth="true"/>
-    <col min="94" max="94" width="26" customWidth="true"/>
-    <col min="95" max="95" width="41" customWidth="true"/>
-    <col min="96" max="96" width="47" customWidth="true"/>
-    <col min="97" max="97" width="37" customWidth="true"/>
-    <col min="98" max="98" width="27" customWidth="true"/>
+    <col min="91" max="91" width="36" customWidth="true"/>
+    <col min="92" max="92" width="35" customWidth="true"/>
+    <col min="93" max="93" width="37" customWidth="true"/>
+    <col min="94" max="94" width="37" customWidth="true"/>
+    <col min="95" max="95" width="29" customWidth="true"/>
+    <col min="96" max="96" width="23" customWidth="true"/>
+    <col min="97" max="97" width="26" customWidth="true"/>
+    <col min="98" max="98" width="26" customWidth="true"/>
     <col min="99" max="99" width="26" customWidth="true"/>
-    <col min="100" max="100" width="26" customWidth="true"/>
-    <col min="101" max="101" width="36" customWidth="true"/>
-    <col min="102" max="102" width="35" customWidth="true"/>
-    <col min="103" max="103" width="37" customWidth="true"/>
-    <col min="104" max="104" width="28" customWidth="true"/>
-    <col min="105" max="105" width="23" customWidth="true"/>
-    <col min="106" max="106" width="23" customWidth="true"/>
+    <col min="100" max="100" width="41" customWidth="true"/>
+    <col min="101" max="101" width="26" customWidth="true"/>
+    <col min="102" max="102" width="28" customWidth="true"/>
+    <col min="103" max="103" width="23" customWidth="true"/>
+    <col min="104" max="104" width="23" customWidth="true"/>
+    <col min="105" max="105" width="47" customWidth="true"/>
+    <col min="106" max="106" width="27" customWidth="true"/>
     <col min="107" max="107" width="28" customWidth="true"/>
     <col min="108" max="108" width="27" customWidth="true"/>
     <col min="109" max="109" width="23" customWidth="true"/>
-    <col min="110" max="110" width="25" customWidth="true"/>
-    <col min="111" max="111" width="23" customWidth="true"/>
-    <col min="112" max="112" width="25" customWidth="true"/>
-    <col min="113" max="113" width="26" customWidth="true"/>
-    <col min="114" max="114" width="27" customWidth="true"/>
-    <col min="115" max="115" width="31" customWidth="true"/>
-    <col min="116" max="116" width="37" customWidth="true"/>
+    <col min="110" max="110" width="44" customWidth="true"/>
+    <col min="111" max="111" width="51" customWidth="true"/>
+    <col min="112" max="112" width="51" customWidth="true"/>
+    <col min="113" max="113" width="29" customWidth="true"/>
+    <col min="114" max="114" width="38" customWidth="true"/>
+    <col min="115" max="115" width="23" customWidth="true"/>
+    <col min="116" max="116" width="24" customWidth="true"/>
     <col min="117" max="117" width="51" customWidth="true"/>
-    <col min="118" max="118" width="25" customWidth="true"/>
-    <col min="119" max="119" width="26" customWidth="true"/>
-    <col min="120" max="120" width="51" customWidth="true"/>
-    <col min="121" max="121" width="27" customWidth="true"/>
-    <col min="122" max="122" width="33" customWidth="true"/>
-    <col min="123" max="123" width="29" customWidth="true"/>
-    <col min="124" max="124" width="23" customWidth="true"/>
-    <col min="125" max="125" width="44" customWidth="true"/>
-    <col min="126" max="126" width="51" customWidth="true"/>
-    <col min="127" max="127" width="29" customWidth="true"/>
-    <col min="128" max="128" width="38" customWidth="true"/>
-    <col min="129" max="129" width="51" customWidth="true"/>
-    <col min="130" max="130" width="23" customWidth="true"/>
-    <col min="131" max="131" width="24" customWidth="true"/>
-    <col min="132" max="132" width="51" customWidth="true"/>
-    <col min="133" max="133" width="37" customWidth="true"/>
-    <col min="134" max="134" width="23" customWidth="true"/>
-    <col min="135" max="135" width="34" customWidth="true"/>
-    <col min="136" max="136" width="23" customWidth="true"/>
-    <col min="137" max="137" width="23" customWidth="true"/>
-    <col min="138" max="138" width="23" customWidth="true"/>
-    <col min="139" max="139" width="34" customWidth="true"/>
-    <col min="140" max="140" width="23" customWidth="true"/>
-    <col min="141" max="141" width="23" customWidth="true"/>
-    <col min="142" max="142" width="23" customWidth="true"/>
-    <col min="143" max="143" width="35" customWidth="true"/>
-    <col min="144" max="144" width="31" customWidth="true"/>
-    <col min="145" max="145" width="23" customWidth="true"/>
-    <col min="146" max="146" width="23" customWidth="true"/>
-    <col min="147" max="147" width="23" customWidth="true"/>
-    <col min="148" max="148" width="31" customWidth="true"/>
-    <col min="149" max="149" width="42" customWidth="true"/>
-    <col min="150" max="150" width="29" customWidth="true"/>
-    <col min="151" max="151" width="37" customWidth="true"/>
-    <col min="152" max="152" width="29" customWidth="true"/>
+    <col min="118" max="118" width="37" customWidth="true"/>
+    <col min="119" max="119" width="23" customWidth="true"/>
+    <col min="120" max="120" width="34" customWidth="true"/>
+    <col min="121" max="121" width="23" customWidth="true"/>
+    <col min="122" max="122" width="23" customWidth="true"/>
+    <col min="123" max="123" width="23" customWidth="true"/>
+    <col min="124" max="124" width="31" customWidth="true"/>
+    <col min="125" max="125" width="34" customWidth="true"/>
+    <col min="126" max="126" width="23" customWidth="true"/>
+    <col min="127" max="127" width="23" customWidth="true"/>
+    <col min="128" max="128" width="23" customWidth="true"/>
+    <col min="129" max="129" width="23" customWidth="true"/>
+    <col min="130" max="130" width="35" customWidth="true"/>
+    <col min="131" max="131" width="23" customWidth="true"/>
+    <col min="132" max="132" width="23" customWidth="true"/>
+    <col min="133" max="133" width="23" customWidth="true"/>
+    <col min="134" max="134" width="48" customWidth="true"/>
+    <col min="135" max="135" width="51" customWidth="true"/>
+    <col min="136" max="136" width="51" customWidth="true"/>
+    <col min="137" max="137" width="51" customWidth="true"/>
+    <col min="138" max="138" width="51" customWidth="true"/>
+    <col min="139" max="139" width="51" customWidth="true"/>
+    <col min="140" max="140" width="51" customWidth="true"/>
+    <col min="141" max="141" width="51" customWidth="true"/>
+    <col min="142" max="142" width="51" customWidth="true"/>
+    <col min="143" max="143" width="51" customWidth="true"/>
+    <col min="144" max="144" width="51" customWidth="true"/>
+    <col min="145" max="145" width="51" customWidth="true"/>
+    <col min="146" max="146" width="51" customWidth="true"/>
+    <col min="147" max="147" width="51" customWidth="true"/>
+    <col min="148" max="148" width="38" customWidth="true"/>
+    <col min="149" max="149" width="40" customWidth="true"/>
+    <col min="150" max="150" width="23" customWidth="true"/>
+    <col min="151" max="151" width="32" customWidth="true"/>
+    <col min="152" max="152" width="24" customWidth="true"/>
     <col min="153" max="153" width="23" customWidth="true"/>
-    <col min="154" max="154" width="48" customWidth="true"/>
-    <col min="155" max="155" width="51" customWidth="true"/>
-    <col min="156" max="156" width="51" customWidth="true"/>
-    <col min="157" max="157" width="38" customWidth="true"/>
-    <col min="158" max="158" width="32" customWidth="true"/>
-    <col min="159" max="159" width="51" customWidth="true"/>
-    <col min="160" max="160" width="51" customWidth="true"/>
+    <col min="154" max="154" width="25" customWidth="true"/>
+    <col min="155" max="155" width="23" customWidth="true"/>
+    <col min="156" max="156" width="25" customWidth="true"/>
+    <col min="157" max="157" width="26" customWidth="true"/>
+    <col min="158" max="158" width="27" customWidth="true"/>
+    <col min="159" max="159" width="31" customWidth="true"/>
+    <col min="160" max="160" width="37" customWidth="true"/>
     <col min="161" max="161" width="51" customWidth="true"/>
-    <col min="162" max="162" width="51" customWidth="true"/>
-    <col min="163" max="163" width="51" customWidth="true"/>
+    <col min="162" max="162" width="25" customWidth="true"/>
+    <col min="163" max="163" width="26" customWidth="true"/>
     <col min="164" max="164" width="51" customWidth="true"/>
-    <col min="165" max="165" width="51" customWidth="true"/>
-    <col min="166" max="166" width="51" customWidth="true"/>
-    <col min="167" max="167" width="51" customWidth="true"/>
-    <col min="168" max="168" width="51" customWidth="true"/>
-    <col min="169" max="169" width="51" customWidth="true"/>
-    <col min="170" max="170" width="23" customWidth="true"/>
-    <col min="171" max="171" width="40" customWidth="true"/>
-    <col min="172" max="172" width="24" customWidth="true"/>
+    <col min="165" max="165" width="29" customWidth="true"/>
+    <col min="166" max="166" width="27" customWidth="true"/>
+    <col min="167" max="167" width="33" customWidth="true"/>
+    <col min="168" max="168" width="31" customWidth="true"/>
+    <col min="169" max="169" width="29" customWidth="true"/>
+    <col min="170" max="170" width="42" customWidth="true"/>
+    <col min="171" max="171" width="37" customWidth="true"/>
+    <col min="172" max="172" width="29" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="3">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" s="3">
         <v>0</v>
@@ -1699,13 +1699,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="3">
         <v>0</v>
       </c>
       <c r="W2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" s="3">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="AO2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2" s="3">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="3">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="BH2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="3">
         <v>0</v>
       </c>
       <c r="BJ2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK2" s="3">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="BM2" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BN2" s="3">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="BS2" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="3">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="CF2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG2" s="3">
         <v>0</v>
       </c>
       <c r="CH2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK2" s="3">
         <v>0</v>
@@ -1927,44 +1927,44 @@
         <v>0</v>
       </c>
       <c r="CS2" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CT2" s="3">
         <v>0</v>
       </c>
       <c r="CU2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="3">
+        <v>1</v>
+      </c>
+      <c r="CY2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="3">
         <v>2</v>
       </c>
-      <c r="CV2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CW2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CX2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CY2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CZ2" s="3">
-        <v>1</v>
-      </c>
-      <c r="DA2" s="3">
-        <v>0</v>
-      </c>
-      <c r="DB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="DC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="DD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="DE2" s="3">
-        <v>0</v>
-      </c>
       <c r="DF2" s="3">
         <v>1</v>
       </c>
@@ -1972,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="DH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI2" s="3">
         <v>2</v>
       </c>
-      <c r="DI2" s="3">
-        <v>1</v>
-      </c>
       <c r="DJ2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DK2" s="3">
         <v>0</v>
@@ -1990,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="DN2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP2" s="3">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="DS2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DU2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW2" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DX2" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DY2" s="3">
         <v>0</v>
@@ -2068,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="EN2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP2" s="3">
         <v>0</v>
@@ -2089,28 +2089,28 @@
         <v>2</v>
       </c>
       <c r="EU2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW2" s="3">
         <v>0</v>
       </c>
       <c r="EX2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY2" s="3">
         <v>0</v>
       </c>
       <c r="EZ2" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FA2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC2" s="3">
         <v>0</v>
@@ -2122,16 +2122,16 @@
         <v>0</v>
       </c>
       <c r="FF2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH2" s="3">
         <v>0</v>
       </c>
       <c r="FI2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ2" s="3">
         <v>0</v>
@@ -2143,16 +2143,16 @@
         <v>0</v>
       </c>
       <c r="FM2" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FN2" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FO2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
@@ -2229,31 +2229,31 @@
         <v>0</v>
       </c>
       <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3">
         <v>5</v>
       </c>
-      <c r="Z3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>0</v>
-      </c>
       <c r="AG3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" s="3">
         <v>0</v>
@@ -2352,26 +2352,26 @@
         <v>0</v>
       </c>
       <c r="BN3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="3">
         <v>2</v>
       </c>
-      <c r="BP3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="3">
-        <v>0</v>
-      </c>
       <c r="BU3" s="3">
         <v>0</v>
       </c>
@@ -2406,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="CF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="3">
         <v>4</v>
-      </c>
-      <c r="CG3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="3">
-        <v>0</v>
       </c>
       <c r="CI3" s="3">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="CP3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ3" s="3">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="CS3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT3" s="3">
         <v>0</v>
@@ -2454,11 +2454,11 @@
         <v>0</v>
       </c>
       <c r="CV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="3">
         <v>2</v>
       </c>
-      <c r="CW3" s="3">
-        <v>0</v>
-      </c>
       <c r="CX3" s="3">
         <v>0</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="DG3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH3" s="3">
         <v>0</v>
@@ -2499,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="DK3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DL3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DM3" s="3">
         <v>0</v>
@@ -2535,22 +2535,22 @@
         <v>0</v>
       </c>
       <c r="DW3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY3" s="3">
         <v>0</v>
       </c>
       <c r="DZ3" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EA3" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EB3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC3" s="3">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="EG3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EH3" s="3">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="EJ3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL3" s="3">
         <v>0</v>
@@ -2586,13 +2586,13 @@
         <v>0</v>
       </c>
       <c r="EN3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ3" s="3">
         <v>1</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="EV3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW3" s="3">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="EY3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ3" s="3">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="FC3" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="FD3" s="3">
         <v>0</v>
@@ -2652,16 +2652,16 @@
         <v>0</v>
       </c>
       <c r="FJ3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN3" s="3">
         <v>0</v>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="FP3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="3">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="BF4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="3">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK4" s="3">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BM4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN4" s="3">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="BS4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="3">
         <v>0</v>
@@ -2924,158 +2924,158 @@
         <v>0</v>
       </c>
       <c r="CF4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG4" s="3">
         <v>0</v>
       </c>
       <c r="CH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="3">
+        <v>1</v>
+      </c>
+      <c r="CU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="DA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL4" s="3">
+        <v>1</v>
+      </c>
+      <c r="DM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA4" s="3">
+        <v>1</v>
+      </c>
+      <c r="EB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED4" s="3">
         <v>2</v>
       </c>
-      <c r="CI4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO4" s="3">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CW4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CX4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CY4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CZ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DB4" s="3">
-        <v>1</v>
-      </c>
-      <c r="DC4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DD4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DF4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DG4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DH4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DI4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DJ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DK4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DL4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DM4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DN4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DO4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DP4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DQ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DR4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DS4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DT4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DU4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DV4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DW4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DX4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DY4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DZ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="EA4" s="3">
-        <v>1</v>
-      </c>
-      <c r="EB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="EC4" s="3">
-        <v>0</v>
-      </c>
-      <c r="ED4" s="3">
-        <v>0</v>
-      </c>
       <c r="EE4" s="3">
         <v>0</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="EP4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ4" s="3">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="ES4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET4" s="3">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="EX4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EY4" s="3">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="FN4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO4" s="3">
         <v>0</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="3">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="3">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="3">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="BI5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ5" s="3">
         <v>0</v>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="BM5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN5" s="3">
         <v>0</v>
@@ -3403,68 +3403,68 @@
         <v>0</v>
       </c>
       <c r="BS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CE5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="3">
+        <v>3</v>
+      </c>
+      <c r="CG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="3">
         <v>2</v>
       </c>
-      <c r="BT5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="3">
-        <v>1</v>
-      </c>
-      <c r="CE5" s="3">
-        <v>1</v>
-      </c>
-      <c r="CF5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="3">
-        <v>1</v>
-      </c>
-      <c r="CH5" s="3">
-        <v>3</v>
-      </c>
-      <c r="CI5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="3">
-        <v>1</v>
-      </c>
       <c r="CN5" s="3">
         <v>0</v>
       </c>
@@ -3475,64 +3475,64 @@
         <v>0</v>
       </c>
       <c r="CQ5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DA5" s="3">
         <v>2</v>
       </c>
-      <c r="CS5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CW5" s="3">
+      <c r="DB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DE5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DF5" s="3">
         <v>2</v>
       </c>
-      <c r="CX5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CY5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CZ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="DA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="DB5" s="3">
-        <v>1</v>
-      </c>
-      <c r="DC5" s="3">
-        <v>0</v>
-      </c>
-      <c r="DD5" s="3">
-        <v>1</v>
-      </c>
-      <c r="DE5" s="3">
-        <v>0</v>
-      </c>
-      <c r="DF5" s="3">
-        <v>0</v>
-      </c>
       <c r="DG5" s="3">
         <v>0</v>
       </c>
       <c r="DH5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI5" s="3">
         <v>0</v>
       </c>
       <c r="DJ5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK5" s="3">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="DM5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN5" s="3">
         <v>0</v>
@@ -3562,109 +3562,109 @@
         <v>0</v>
       </c>
       <c r="DT5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DW5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED5" s="3">
+        <v>1</v>
+      </c>
+      <c r="EE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER5" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES5" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET5" s="3">
+        <v>1</v>
+      </c>
+      <c r="EU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV5" s="3">
         <v>2</v>
       </c>
-      <c r="DV5" s="3">
-        <v>0</v>
-      </c>
-      <c r="DW5" s="3">
-        <v>0</v>
-      </c>
-      <c r="DX5" s="3">
-        <v>0</v>
-      </c>
-      <c r="DY5" s="3">
-        <v>0</v>
-      </c>
-      <c r="DZ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EC5" s="3">
-        <v>0</v>
-      </c>
-      <c r="ED5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EE5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EF5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EG5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EH5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EI5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EJ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EK5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EL5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EM5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EN5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EO5" s="3">
-        <v>1</v>
-      </c>
-      <c r="EP5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EQ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="ER5" s="3">
-        <v>0</v>
-      </c>
-      <c r="ES5" s="3">
-        <v>0</v>
-      </c>
-      <c r="ET5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EU5" s="3">
-        <v>0</v>
-      </c>
-      <c r="EV5" s="3">
-        <v>0</v>
-      </c>
       <c r="EW5" s="3">
         <v>0</v>
       </c>
       <c r="EX5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY5" s="3">
         <v>0</v>
       </c>
       <c r="EZ5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA5" s="3">
         <v>0</v>
       </c>
       <c r="FB5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC5" s="3">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="FE5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF5" s="3">
         <v>0</v>
@@ -3700,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="FN5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO5" s="3">
         <v>0</v>
       </c>
       <c r="FP5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3732,10 +3732,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -3762,22 +3762,22 @@
         <v>4</v>
       </c>
       <c r="R6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="3">
         <v>0</v>
@@ -3795,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="3">
         <v>0</v>
@@ -3828,16 +3828,16 @@
         <v>0</v>
       </c>
       <c r="AN6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="3">
         <v>0</v>
       </c>
       <c r="AQ6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6" s="3">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="BF6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="3">
         <v>0</v>
@@ -3903,37 +3903,37 @@
         <v>0</v>
       </c>
       <c r="BM6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="3">
         <v>2</v>
       </c>
-      <c r="BP6" s="3">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="3">
-        <v>1</v>
-      </c>
-      <c r="BR6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="3">
-        <v>1</v>
-      </c>
-      <c r="BT6" s="3">
-        <v>0</v>
-      </c>
       <c r="BU6" s="3">
         <v>0</v>
       </c>
       <c r="BV6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX6" s="3">
         <v>0</v>
@@ -3960,19 +3960,19 @@
         <v>1</v>
       </c>
       <c r="CF6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CG6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CI6" s="3">
         <v>0</v>
       </c>
       <c r="CJ6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK6" s="3">
         <v>0</v>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="CM6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CN6" s="3">
         <v>1</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="CR6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS6" s="3">
         <v>0</v>
@@ -4011,53 +4011,53 @@
         <v>0</v>
       </c>
       <c r="CW6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL6" s="3">
         <v>2</v>
       </c>
-      <c r="CX6" s="3">
-        <v>1</v>
-      </c>
-      <c r="CY6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CZ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="DA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="DB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="DC6" s="3">
-        <v>0</v>
-      </c>
-      <c r="DD6" s="3">
-        <v>0</v>
-      </c>
-      <c r="DE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="DF6" s="3">
-        <v>0</v>
-      </c>
-      <c r="DG6" s="3">
-        <v>0</v>
-      </c>
-      <c r="DH6" s="3">
-        <v>0</v>
-      </c>
-      <c r="DI6" s="3">
-        <v>0</v>
-      </c>
-      <c r="DJ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="DK6" s="3">
-        <v>0</v>
-      </c>
-      <c r="DL6" s="3">
-        <v>0</v>
-      </c>
       <c r="DM6" s="3">
         <v>0</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="DO6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP6" s="3">
         <v>0</v>
@@ -4077,10 +4077,10 @@
         <v>0</v>
       </c>
       <c r="DS6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU6" s="3">
         <v>0</v>
@@ -4098,31 +4098,31 @@
         <v>0</v>
       </c>
       <c r="DZ6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="EB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED6" s="3">
+        <v>5</v>
+      </c>
+      <c r="EE6" s="3">
+        <v>1</v>
+      </c>
+      <c r="EF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG6" s="3">
         <v>2</v>
       </c>
-      <c r="EB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="EC6" s="3">
-        <v>0</v>
-      </c>
-      <c r="ED6" s="3">
-        <v>1</v>
-      </c>
-      <c r="EE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="EF6" s="3">
-        <v>0</v>
-      </c>
-      <c r="EG6" s="3">
-        <v>0</v>
-      </c>
       <c r="EH6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI6" s="3">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         <v>0</v>
       </c>
       <c r="EL6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM6" s="3">
         <v>1</v>
       </c>
       <c r="EN6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO6" s="3">
         <v>0</v>
       </c>
       <c r="EP6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ6" s="3">
         <v>0</v>
@@ -4155,70 +4155,70 @@
         <v>0</v>
       </c>
       <c r="ES6" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EY6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="FN6" s="3">
         <v>2</v>
-      </c>
-      <c r="ET6" s="3">
-        <v>0</v>
-      </c>
-      <c r="EU6" s="3">
-        <v>0</v>
-      </c>
-      <c r="EV6" s="3">
-        <v>0</v>
-      </c>
-      <c r="EW6" s="3">
-        <v>0</v>
-      </c>
-      <c r="EX6" s="3">
-        <v>5</v>
-      </c>
-      <c r="EY6" s="3">
-        <v>0</v>
-      </c>
-      <c r="EZ6" s="3">
-        <v>1</v>
-      </c>
-      <c r="FA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="FB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="FC6" s="3">
-        <v>2</v>
-      </c>
-      <c r="FD6" s="3">
-        <v>0</v>
-      </c>
-      <c r="FE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="FF6" s="3">
-        <v>0</v>
-      </c>
-      <c r="FG6" s="3">
-        <v>0</v>
-      </c>
-      <c r="FH6" s="3">
-        <v>1</v>
-      </c>
-      <c r="FI6" s="3">
-        <v>1</v>
-      </c>
-      <c r="FJ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="FK6" s="3">
-        <v>0</v>
-      </c>
-      <c r="FL6" s="3">
-        <v>0</v>
-      </c>
-      <c r="FM6" s="3">
-        <v>0</v>
-      </c>
-      <c r="FN6" s="3">
-        <v>0</v>
       </c>
       <c r="FO6" s="3">
         <v>0</v>
@@ -4250,314 +4250,314 @@
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="3">
         <v>3</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="BD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="3">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="3">
         <v>2</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="3">
-        <v>3</v>
-      </c>
-      <c r="AV7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="3">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="3">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="3">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="3">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="3">
-        <v>1</v>
-      </c>
-      <c r="BI7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="3">
-        <v>1</v>
-      </c>
-      <c r="BL7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="3">
-        <v>1</v>
-      </c>
-      <c r="BT7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="3">
-        <v>1</v>
-      </c>
-      <c r="BX7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="3">
-        <v>1</v>
-      </c>
-      <c r="CA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="3">
-        <v>0</v>
-      </c>
       <c r="CG7" s="3">
         <v>0</v>
       </c>
       <c r="CH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX7" s="3">
+        <v>4</v>
+      </c>
+      <c r="CY7" s="3">
+        <v>1</v>
+      </c>
+      <c r="CZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="3">
         <v>2</v>
       </c>
-      <c r="CI7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CW7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CX7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CY7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CZ7" s="3">
-        <v>4</v>
-      </c>
-      <c r="DA7" s="3">
-        <v>1</v>
-      </c>
-      <c r="DB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="DC7" s="3">
-        <v>0</v>
-      </c>
-      <c r="DD7" s="3">
-        <v>0</v>
-      </c>
-      <c r="DE7" s="3">
-        <v>0</v>
-      </c>
-      <c r="DF7" s="3">
-        <v>0</v>
-      </c>
       <c r="DG7" s="3">
         <v>0</v>
       </c>
@@ -4568,13 +4568,13 @@
         <v>0</v>
       </c>
       <c r="DJ7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK7" s="3">
         <v>0</v>
       </c>
       <c r="DL7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM7" s="3">
         <v>0</v>
@@ -4601,35 +4601,35 @@
         <v>0</v>
       </c>
       <c r="DU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV7" s="3">
+        <v>1</v>
+      </c>
+      <c r="DW7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED7" s="3">
         <v>2</v>
       </c>
-      <c r="DV7" s="3">
-        <v>0</v>
-      </c>
-      <c r="DW7" s="3">
-        <v>0</v>
-      </c>
-      <c r="DX7" s="3">
-        <v>0</v>
-      </c>
-      <c r="DY7" s="3">
-        <v>0</v>
-      </c>
-      <c r="DZ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="EA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="EB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="EC7" s="3">
-        <v>0</v>
-      </c>
-      <c r="ED7" s="3">
-        <v>0</v>
-      </c>
       <c r="EE7" s="3">
         <v>0</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="EG7" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EH7" s="3">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="EO7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP7" s="3">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="EX7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EY7" s="3">
         <v>0</v>
@@ -4700,13 +4700,13 @@
         <v>0</v>
       </c>
       <c r="FB7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FD7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE7" s="3">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="3">
         <v>4</v>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -4798,19 +4798,19 @@
         <v>4</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="3">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="3">
         <v>0</v>
@@ -4996,19 +4996,19 @@
         <v>0</v>
       </c>
       <c r="CF8" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH8" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CI8" s="3">
         <v>0</v>
       </c>
       <c r="CJ8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK8" s="3">
         <v>0</v>
@@ -5023,13 +5023,13 @@
         <v>0</v>
       </c>
       <c r="CO8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP8" s="3">
         <v>0</v>
       </c>
       <c r="CQ8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR8" s="3">
         <v>0</v>
@@ -5038,13 +5038,13 @@
         <v>0</v>
       </c>
       <c r="CT8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU8" s="3">
         <v>0</v>
       </c>
       <c r="CV8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW8" s="3">
         <v>0</v>
@@ -5056,13 +5056,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA8" s="3">
         <v>0</v>
       </c>
       <c r="DB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC8" s="3">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="DG8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH8" s="3">
         <v>0</v>
@@ -5119,10 +5119,10 @@
         <v>0</v>
       </c>
       <c r="DU8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW8" s="3">
         <v>0</v>
@@ -5155,19 +5155,19 @@
         <v>0</v>
       </c>
       <c r="EG8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EH8" s="3">
         <v>0</v>
       </c>
       <c r="EI8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL8" s="3">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="EO8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP8" s="3">
         <v>0</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="EY8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ8" s="3">
         <v>0</v>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="FC8" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="FD8" s="3">
         <v>0</v>
@@ -5230,10 +5230,10 @@
         <v>0</v>
       </c>
       <c r="FF8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH8" s="3">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="3">
         <v>0</v>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9" s="3">
         <v>0</v>
@@ -5403,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="AU9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9" s="3">
         <v>0</v>
@@ -5427,10 +5427,10 @@
         <v>0</v>
       </c>
       <c r="BC9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="3">
         <v>0</v>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ9" s="3">
         <v>0</v>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="BN9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO9" s="3">
         <v>0</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="BS9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="3">
         <v>0</v>
@@ -5514,13 +5514,13 @@
         <v>0</v>
       </c>
       <c r="CF9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG9" s="3">
         <v>0</v>
       </c>
       <c r="CH9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI9" s="3">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="CN9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO9" s="3">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="CR9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS9" s="3">
         <v>0</v>
@@ -5568,13 +5568,13 @@
         <v>0</v>
       </c>
       <c r="CX9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY9" s="3">
         <v>0</v>
       </c>
       <c r="CZ9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA9" s="3">
         <v>0</v>
@@ -5589,175 +5589,175 @@
         <v>0</v>
       </c>
       <c r="DE9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG9" s="3">
         <v>0</v>
       </c>
       <c r="DH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR9" s="3">
+        <v>1</v>
+      </c>
+      <c r="DS9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY9" s="3">
         <v>2</v>
       </c>
-      <c r="DI9" s="3">
-        <v>0</v>
-      </c>
-      <c r="DJ9" s="3">
-        <v>1</v>
-      </c>
-      <c r="DK9" s="3">
-        <v>0</v>
-      </c>
-      <c r="DL9" s="3">
-        <v>0</v>
-      </c>
-      <c r="DM9" s="3">
-        <v>0</v>
-      </c>
-      <c r="DN9" s="3">
-        <v>0</v>
-      </c>
-      <c r="DO9" s="3">
-        <v>0</v>
-      </c>
-      <c r="DP9" s="3">
-        <v>0</v>
-      </c>
-      <c r="DQ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="DR9" s="3">
-        <v>0</v>
-      </c>
-      <c r="DS9" s="3">
+      <c r="DZ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER9" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES9" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EY9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ9" s="3">
         <v>2</v>
       </c>
-      <c r="DT9" s="3">
-        <v>1</v>
-      </c>
-      <c r="DU9" s="3">
-        <v>1</v>
-      </c>
-      <c r="DV9" s="3">
-        <v>0</v>
-      </c>
-      <c r="DW9" s="3">
-        <v>0</v>
-      </c>
-      <c r="DX9" s="3">
-        <v>0</v>
-      </c>
-      <c r="DY9" s="3">
-        <v>0</v>
-      </c>
-      <c r="DZ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EB9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EC9" s="3">
-        <v>0</v>
-      </c>
-      <c r="ED9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EE9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EF9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EG9" s="3">
-        <v>1</v>
-      </c>
-      <c r="EH9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EI9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EJ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EK9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EL9" s="3">
+      <c r="FA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB9" s="3">
+        <v>1</v>
+      </c>
+      <c r="FC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI9" s="3">
         <v>2</v>
-      </c>
-      <c r="EM9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EN9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EO9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EP9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EQ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="ER9" s="3">
-        <v>0</v>
-      </c>
-      <c r="ES9" s="3">
-        <v>0</v>
-      </c>
-      <c r="ET9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EU9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EV9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EW9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EX9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EY9" s="3">
-        <v>0</v>
-      </c>
-      <c r="EZ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="FA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="FB9" s="3">
-        <v>0</v>
-      </c>
-      <c r="FC9" s="3">
-        <v>0</v>
-      </c>
-      <c r="FD9" s="3">
-        <v>0</v>
-      </c>
-      <c r="FE9" s="3">
-        <v>0</v>
-      </c>
-      <c r="FF9" s="3">
-        <v>0</v>
-      </c>
-      <c r="FG9" s="3">
-        <v>0</v>
-      </c>
-      <c r="FH9" s="3">
-        <v>0</v>
-      </c>
-      <c r="FI9" s="3">
-        <v>0</v>
       </c>
       <c r="FJ9" s="3">
         <v>0</v>
@@ -5804,23 +5804,23 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>2</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="3">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="AO10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="3">
         <v>0</v>
@@ -6032,113 +6032,113 @@
         <v>0</v>
       </c>
       <c r="CF10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CG10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH10" s="3">
+        <v>1</v>
+      </c>
+      <c r="CI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT10" s="3">
         <v>2</v>
       </c>
-      <c r="CI10" s="3">
-        <v>1</v>
-      </c>
-      <c r="CJ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO10" s="3">
+      <c r="CU10" s="3">
         <v>2</v>
       </c>
-      <c r="CP10" s="3">
+      <c r="CV10" s="3">
+        <v>1</v>
+      </c>
+      <c r="CW10" s="3">
+        <v>1</v>
+      </c>
+      <c r="CX10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN10" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO10" s="3">
         <v>2</v>
       </c>
-      <c r="CQ10" s="3">
-        <v>1</v>
-      </c>
-      <c r="CR10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV10" s="3">
-        <v>1</v>
-      </c>
-      <c r="CW10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CX10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CY10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CZ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="DA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="DB10" s="3">
-        <v>0</v>
-      </c>
-      <c r="DC10" s="3">
-        <v>0</v>
-      </c>
-      <c r="DD10" s="3">
-        <v>0</v>
-      </c>
-      <c r="DE10" s="3">
-        <v>0</v>
-      </c>
-      <c r="DF10" s="3">
-        <v>0</v>
-      </c>
-      <c r="DG10" s="3">
-        <v>0</v>
-      </c>
-      <c r="DH10" s="3">
-        <v>0</v>
-      </c>
-      <c r="DI10" s="3">
-        <v>0</v>
-      </c>
-      <c r="DJ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="DK10" s="3">
-        <v>0</v>
-      </c>
-      <c r="DL10" s="3">
-        <v>0</v>
-      </c>
-      <c r="DM10" s="3">
-        <v>0</v>
-      </c>
-      <c r="DN10" s="3">
-        <v>0</v>
-      </c>
-      <c r="DO10" s="3">
-        <v>0</v>
-      </c>
       <c r="DP10" s="3">
         <v>0</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="EA10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB10" s="3">
         <v>0</v>
@@ -6182,13 +6182,13 @@
         <v>0</v>
       </c>
       <c r="ED10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EE10" s="3">
         <v>0</v>
       </c>
       <c r="EF10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG10" s="3">
         <v>0</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="EP10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ10" s="3">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="ES10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET10" s="3">
         <v>0</v>
@@ -6242,10 +6242,10 @@
         <v>0</v>
       </c>
       <c r="EX10" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EY10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ10" s="3">
         <v>0</v>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="FN10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO10" s="3">
         <v>0</v>
@@ -6322,146 +6322,146 @@
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>4</v>
+      </c>
+      <c r="O11" s="3">
+        <v>5</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>3</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="3">
         <v>2</v>
       </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>4</v>
-      </c>
-      <c r="L11" s="3">
-        <v>5</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
+      <c r="AI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="3">
         <v>3</v>
       </c>
-      <c r="V11" s="3">
-        <v>1</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="3">
-        <v>3</v>
-      </c>
-      <c r="AU11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="3">
-        <v>2</v>
-      </c>
-      <c r="AX11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="3">
-        <v>0</v>
-      </c>
       <c r="BC11" s="3">
         <v>0</v>
       </c>
@@ -6475,16 +6475,16 @@
         <v>0</v>
       </c>
       <c r="BG11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="3">
         <v>0</v>
       </c>
       <c r="BJ11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK11" s="3">
         <v>0</v>
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="BM11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN11" s="3">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="BP11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ11" s="3">
         <v>0</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="BS11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="3">
         <v>0</v>
       </c>
       <c r="BU11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV11" s="3">
         <v>0</v>
@@ -6550,13 +6550,13 @@
         <v>0</v>
       </c>
       <c r="CF11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG11" s="3">
         <v>0</v>
       </c>
       <c r="CH11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI11" s="3">
         <v>0</v>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="CP11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ11" s="3">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="CS11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT11" s="3">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="DG11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH11" s="3">
         <v>0</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="EC11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED11" s="3">
         <v>0</v>
@@ -6706,10 +6706,10 @@
         <v>0</v>
       </c>
       <c r="EF11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EH11" s="3">
         <v>0</v>
@@ -6751,13 +6751,13 @@
         <v>0</v>
       </c>
       <c r="EU11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EV11" s="3">
         <v>0</v>
       </c>
       <c r="EW11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX11" s="3">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="FB11" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FC11" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FD11" s="3">
         <v>0</v>
@@ -6888,19 +6888,19 @@
         <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="3">
         <v>0</v>
       </c>
       <c r="Z12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
       </c>
       <c r="AB12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="3">
         <v>0</v>
@@ -6918,13 +6918,13 @@
         <v>0</v>
       </c>
       <c r="AH12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="3">
         <v>0</v>
@@ -6942,329 +6942,329 @@
         <v>0</v>
       </c>
       <c r="AP12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="3">
         <v>2</v>
       </c>
-      <c r="AQ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="3">
+      <c r="BN12" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="3">
+        <v>1</v>
+      </c>
+      <c r="CG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL12" s="3">
+        <v>1</v>
+      </c>
+      <c r="CM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO12" s="3">
+        <v>1</v>
+      </c>
+      <c r="CP12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG12" s="3">
+        <v>1</v>
+      </c>
+      <c r="DH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT12" s="3">
+        <v>1</v>
+      </c>
+      <c r="DU12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY12" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC12" s="3">
+        <v>1</v>
+      </c>
+      <c r="ED12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF12" s="3">
+        <v>1</v>
+      </c>
+      <c r="EG12" s="3">
         <v>2</v>
       </c>
-      <c r="AX12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="3">
+      <c r="EH12" s="3">
+        <v>1</v>
+      </c>
+      <c r="EI12" s="3">
+        <v>1</v>
+      </c>
+      <c r="EJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP12" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER12" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES12" s="3">
         <v>2</v>
       </c>
-      <c r="BA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS12" s="3">
-        <v>2</v>
-      </c>
-      <c r="BT12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV12" s="3">
-        <v>1</v>
-      </c>
-      <c r="BW12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH12" s="3">
-        <v>1</v>
-      </c>
-      <c r="CI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL12" s="3">
-        <v>1</v>
-      </c>
-      <c r="CM12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CW12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CX12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CY12" s="3">
-        <v>1</v>
-      </c>
-      <c r="CZ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DC12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DF12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DH12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DJ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DK12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DL12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DM12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DN12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DO12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DP12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DQ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DR12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DS12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DT12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DU12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DV12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DW12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DX12" s="3">
-        <v>0</v>
-      </c>
-      <c r="DY12" s="3">
-        <v>1</v>
-      </c>
-      <c r="DZ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="EA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="EB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="EC12" s="3">
-        <v>0</v>
-      </c>
-      <c r="ED12" s="3">
-        <v>0</v>
-      </c>
-      <c r="EE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="EF12" s="3">
-        <v>0</v>
-      </c>
-      <c r="EG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="EH12" s="3">
-        <v>0</v>
-      </c>
-      <c r="EI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="EJ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="EK12" s="3">
-        <v>0</v>
-      </c>
-      <c r="EL12" s="3">
-        <v>0</v>
-      </c>
-      <c r="EM12" s="3">
-        <v>0</v>
-      </c>
-      <c r="EN12" s="3">
-        <v>1</v>
-      </c>
-      <c r="EO12" s="3">
-        <v>0</v>
-      </c>
-      <c r="EP12" s="3">
-        <v>0</v>
-      </c>
-      <c r="EQ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="ER12" s="3">
-        <v>0</v>
-      </c>
-      <c r="ES12" s="3">
-        <v>0</v>
-      </c>
       <c r="ET12" s="3">
         <v>0</v>
       </c>
@@ -7275,13 +7275,13 @@
         <v>0</v>
       </c>
       <c r="EW12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX12" s="3">
         <v>0</v>
       </c>
       <c r="EY12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ12" s="3">
         <v>0</v>
@@ -7293,13 +7293,13 @@
         <v>0</v>
       </c>
       <c r="FC12" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FD12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF12" s="3">
         <v>0</v>
@@ -7329,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="FO12" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FP12" s="3">
         <v>0</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
         <v>3</v>
@@ -7373,379 +7373,379 @@
         <v>0</v>
       </c>
       <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3">
+        <v>1</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="3">
         <v>3</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <v>1</v>
-      </c>
-      <c r="V13" s="3">
-        <v>1</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="3">
+      <c r="CG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL13" s="3">
+        <v>1</v>
+      </c>
+      <c r="CM13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP13" s="3">
+        <v>1</v>
+      </c>
+      <c r="CQ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW13" s="3">
+        <v>1</v>
+      </c>
+      <c r="CX13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ13" s="3">
+        <v>1</v>
+      </c>
+      <c r="DA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT13" s="3">
+        <v>1</v>
+      </c>
+      <c r="DU13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV13" s="3">
+        <v>1</v>
+      </c>
+      <c r="DW13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY13" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED13" s="3">
         <v>2</v>
       </c>
-      <c r="AM13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="3">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="3">
-        <v>1</v>
-      </c>
-      <c r="BJ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN13" s="3">
-        <v>1</v>
-      </c>
-      <c r="BO13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR13" s="3">
-        <v>1</v>
-      </c>
-      <c r="BS13" s="3">
-        <v>1</v>
-      </c>
-      <c r="BT13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH13" s="3">
-        <v>3</v>
-      </c>
-      <c r="CI13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL13" s="3">
-        <v>1</v>
-      </c>
-      <c r="CM13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS13" s="3">
-        <v>1</v>
-      </c>
-      <c r="CT13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV13" s="3">
-        <v>1</v>
-      </c>
-      <c r="CW13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CX13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CY13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CZ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DA13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DB13" s="3">
-        <v>1</v>
-      </c>
-      <c r="DC13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DD13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DE13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DF13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DG13" s="3">
-        <v>1</v>
-      </c>
-      <c r="DH13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DI13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DJ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DK13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DL13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DM13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DN13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DO13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DP13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DQ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DR13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DS13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DT13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DU13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DV13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DW13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DX13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DY13" s="3">
-        <v>0</v>
-      </c>
-      <c r="DZ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="EA13" s="3">
-        <v>0</v>
-      </c>
-      <c r="EB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="EC13" s="3">
-        <v>0</v>
-      </c>
-      <c r="ED13" s="3">
-        <v>0</v>
-      </c>
       <c r="EE13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF13" s="3">
         <v>0</v>
       </c>
       <c r="EG13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EH13" s="3">
         <v>0</v>
@@ -7766,10 +7766,10 @@
         <v>0</v>
       </c>
       <c r="EN13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP13" s="3">
         <v>0</v>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="ES13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET13" s="3">
         <v>0</v>
@@ -7796,13 +7796,13 @@
         <v>0</v>
       </c>
       <c r="EX13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EY13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA13" s="3">
         <v>0</v>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="FC13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FD13" s="3">
         <v>0</v>
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="FO13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP13" s="3">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -7954,58 +7954,58 @@
         <v>0</v>
       </c>
       <c r="AH14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="3">
         <v>3</v>
-      </c>
-      <c r="AJ14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="3">
-        <v>0</v>
       </c>
       <c r="AZ14" s="3">
         <v>0</v>
@@ -8104,13 +8104,13 @@
         <v>5</v>
       </c>
       <c r="CF14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG14" s="3">
         <v>0</v>
       </c>
       <c r="CH14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI14" s="3">
         <v>0</v>
@@ -8128,25 +8128,25 @@
         <v>0</v>
       </c>
       <c r="CN14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR14" s="3">
         <v>2</v>
       </c>
-      <c r="CO14" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP14" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ14" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR14" s="3">
-        <v>0</v>
-      </c>
       <c r="CS14" s="3">
         <v>0</v>
       </c>
       <c r="CT14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU14" s="3">
         <v>0</v>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="CZ14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA14" s="3">
         <v>0</v>
@@ -8182,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="DF14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG14" s="3">
         <v>0</v>
@@ -8194,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="DJ14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK14" s="3">
         <v>0</v>
@@ -8215,148 +8215,148 @@
         <v>0</v>
       </c>
       <c r="DQ14" s="3">
+        <v>1</v>
+      </c>
+      <c r="DR14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY14" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ14" s="3">
+        <v>1</v>
+      </c>
+      <c r="EA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED14" s="3">
+        <v>1</v>
+      </c>
+      <c r="EE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER14" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES14" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EY14" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB14" s="3">
+        <v>1</v>
+      </c>
+      <c r="FC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FH14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="FJ14" s="3">
         <v>2</v>
       </c>
-      <c r="DR14" s="3">
-        <v>0</v>
-      </c>
-      <c r="DS14" s="3">
-        <v>0</v>
-      </c>
-      <c r="DT14" s="3">
-        <v>0</v>
-      </c>
-      <c r="DU14" s="3">
-        <v>1</v>
-      </c>
-      <c r="DV14" s="3">
-        <v>0</v>
-      </c>
-      <c r="DW14" s="3">
-        <v>0</v>
-      </c>
-      <c r="DX14" s="3">
-        <v>0</v>
-      </c>
-      <c r="DY14" s="3">
-        <v>0</v>
-      </c>
-      <c r="DZ14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="ED14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EE14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EF14" s="3">
-        <v>1</v>
-      </c>
-      <c r="EG14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EH14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EI14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EJ14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EK14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EL14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EM14" s="3">
-        <v>1</v>
-      </c>
-      <c r="EN14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EO14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EP14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EQ14" s="3">
-        <v>0</v>
-      </c>
-      <c r="ER14" s="3">
-        <v>1</v>
-      </c>
-      <c r="ES14" s="3">
-        <v>0</v>
-      </c>
-      <c r="ET14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EU14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EV14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EW14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EX14" s="3">
-        <v>1</v>
-      </c>
-      <c r="EY14" s="3">
-        <v>0</v>
-      </c>
-      <c r="EZ14" s="3">
-        <v>0</v>
-      </c>
-      <c r="FA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="FB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="FC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="FD14" s="3">
-        <v>0</v>
-      </c>
-      <c r="FE14" s="3">
-        <v>0</v>
-      </c>
-      <c r="FF14" s="3">
-        <v>0</v>
-      </c>
-      <c r="FG14" s="3">
-        <v>0</v>
-      </c>
-      <c r="FH14" s="3">
-        <v>0</v>
-      </c>
-      <c r="FI14" s="3">
-        <v>0</v>
-      </c>
-      <c r="FJ14" s="3">
-        <v>0</v>
-      </c>
       <c r="FK14" s="3">
         <v>0</v>
       </c>
       <c r="FL14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM14" s="3">
         <v>0</v>
@@ -8394,10 +8394,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -8409,469 +8409,469 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH15" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="3">
+        <v>1</v>
+      </c>
+      <c r="CA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="3">
         <v>2</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="3">
-        <v>1</v>
-      </c>
-      <c r="BA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE15" s="3">
-        <v>1</v>
-      </c>
-      <c r="BF15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS15" s="3">
-        <v>1</v>
-      </c>
-      <c r="BT15" s="3">
-        <v>1</v>
-      </c>
-      <c r="BU15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ15" s="3">
-        <v>1</v>
-      </c>
-      <c r="CA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF15" s="3">
-        <v>0</v>
-      </c>
       <c r="CG15" s="3">
         <v>0</v>
       </c>
       <c r="CH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK15" s="3">
+        <v>1</v>
+      </c>
+      <c r="CL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ15" s="3">
+        <v>4</v>
+      </c>
+      <c r="CR15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS15" s="3">
+        <v>3</v>
+      </c>
+      <c r="CT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE15" s="3">
+        <v>1</v>
+      </c>
+      <c r="DF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV15" s="3">
+        <v>1</v>
+      </c>
+      <c r="DW15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED15" s="3">
+        <v>3</v>
+      </c>
+      <c r="EE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG15" s="3">
+        <v>1</v>
+      </c>
+      <c r="EH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER15" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES15" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW15" s="3">
+        <v>1</v>
+      </c>
+      <c r="EX15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EY15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB15" s="3">
         <v>2</v>
       </c>
-      <c r="CI15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK15" s="3">
-        <v>1</v>
-      </c>
-      <c r="CL15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM15" s="3">
-        <v>4</v>
-      </c>
-      <c r="CN15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU15" s="3">
+      <c r="FC15" s="3">
+        <v>1</v>
+      </c>
+      <c r="FD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FE15" s="3">
+        <v>1</v>
+      </c>
+      <c r="FF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="FG15" s="3">
         <v>3</v>
       </c>
-      <c r="CV15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CW15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CX15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CY15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CZ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DC15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DD15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DE15" s="3">
-        <v>1</v>
-      </c>
-      <c r="DF15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DG15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DH15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DI15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DJ15" s="3">
-        <v>2</v>
-      </c>
-      <c r="DK15" s="3">
-        <v>1</v>
-      </c>
-      <c r="DL15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DM15" s="3">
-        <v>1</v>
-      </c>
-      <c r="DN15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DO15" s="3">
-        <v>3</v>
-      </c>
-      <c r="DP15" s="3">
-        <v>1</v>
-      </c>
-      <c r="DQ15" s="3">
-        <v>1</v>
-      </c>
-      <c r="DR15" s="3">
-        <v>1</v>
-      </c>
-      <c r="DS15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DT15" s="3">
-        <v>1</v>
-      </c>
-      <c r="DU15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DV15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DW15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DX15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DY15" s="3">
-        <v>0</v>
-      </c>
-      <c r="DZ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EC15" s="3">
-        <v>0</v>
-      </c>
-      <c r="ED15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EE15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EF15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EG15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EH15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EI15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EJ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EK15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EL15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EM15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EN15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EO15" s="3">
-        <v>1</v>
-      </c>
-      <c r="EP15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EQ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="ER15" s="3">
-        <v>0</v>
-      </c>
-      <c r="ES15" s="3">
-        <v>0</v>
-      </c>
-      <c r="ET15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EU15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EV15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EW15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EX15" s="3">
-        <v>3</v>
-      </c>
-      <c r="EY15" s="3">
-        <v>0</v>
-      </c>
-      <c r="EZ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="FA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="FB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="FC15" s="3">
-        <v>1</v>
-      </c>
-      <c r="FD15" s="3">
-        <v>0</v>
-      </c>
-      <c r="FE15" s="3">
-        <v>0</v>
-      </c>
-      <c r="FF15" s="3">
-        <v>0</v>
-      </c>
-      <c r="FG15" s="3">
-        <v>0</v>
-      </c>
       <c r="FH15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI15" s="3">
         <v>0</v>
       </c>
       <c r="FJ15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL15" s="3">
         <v>0</v>
@@ -8915,13 +8915,13 @@
         <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
       </c>
       <c r="K16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
@@ -8975,62 +8975,62 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="3">
         <v>2</v>
       </c>
-      <c r="AF16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="3">
-        <v>0</v>
-      </c>
       <c r="AV16" s="3">
         <v>0</v>
       </c>
@@ -9167,25 +9167,25 @@
         <v>0</v>
       </c>
       <c r="CO16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT16" s="3">
         <v>2</v>
       </c>
-      <c r="CP16" s="3">
-        <v>1</v>
-      </c>
-      <c r="CQ16" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR16" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS16" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT16" s="3">
-        <v>0</v>
-      </c>
       <c r="CU16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV16" s="3">
         <v>0</v>
@@ -9236,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="DL16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM16" s="3">
         <v>0</v>
@@ -9269,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="DW16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX16" s="3">
         <v>0</v>
@@ -9281,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="EA16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB16" s="3">
         <v>0</v>
@@ -9290,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="ED16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EE16" s="3">
         <v>0</v>
@@ -9308,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="EJ16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK16" s="3">
         <v>0</v>
@@ -9332,10 +9332,10 @@
         <v>0</v>
       </c>
       <c r="ER16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ES16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ET16" s="3">
         <v>0</v>
@@ -9350,7 +9350,7 @@
         <v>0</v>
       </c>
       <c r="EX16" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EY16" s="3">
         <v>0</v>
@@ -9359,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="FA16" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FB16" s="3">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="FO16" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FP16" s="3">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="3">
         <v>2</v>
@@ -9445,226 +9445,226 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="3">
+        <v>1</v>
+      </c>
+      <c r="BY17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="3">
         <v>2</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK17" s="3">
-        <v>1</v>
-      </c>
-      <c r="BL17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX17" s="3">
-        <v>1</v>
-      </c>
-      <c r="BY17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ17" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB17" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC17" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD17" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE17" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF17" s="3">
-        <v>0</v>
-      </c>
       <c r="CG17" s="3">
         <v>0</v>
       </c>
       <c r="CH17" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CI17" s="3">
         <v>0</v>
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="CP17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ17" s="3">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="CS17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT17" s="3">
         <v>0</v>
@@ -9718,13 +9718,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA17" s="3">
         <v>0</v>
       </c>
       <c r="DB17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC17" s="3">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="DY17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ17" s="3">
         <v>0</v>
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="EI17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ17" s="3">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="EL17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM17" s="3">
         <v>0</v>
@@ -9850,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="ER17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="ES17" s="3">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="FA17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FB17" s="3">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="FE17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF17" s="3">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -10026,10 +10026,10 @@
         <v>0</v>
       </c>
       <c r="AH18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="3">
         <v>0</v>
@@ -10065,34 +10065,34 @@
         <v>0</v>
       </c>
       <c r="AU18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="3">
         <v>2</v>
       </c>
-      <c r="AV18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="3">
-        <v>0</v>
-      </c>
       <c r="BD18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18" s="3">
         <v>0</v>
@@ -10176,13 +10176,13 @@
         <v>0</v>
       </c>
       <c r="CF18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG18" s="3">
         <v>0</v>
       </c>
       <c r="CH18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI18" s="3">
         <v>0</v>
@@ -10260,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="DH18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI18" s="3">
         <v>0</v>
@@ -10275,16 +10275,16 @@
         <v>0</v>
       </c>
       <c r="DM18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO18" s="3">
         <v>0</v>
       </c>
       <c r="DP18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ18" s="3">
         <v>0</v>
@@ -10302,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="DV18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW18" s="3">
         <v>0</v>
@@ -10311,7 +10311,7 @@
         <v>0</v>
       </c>
       <c r="DY18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ18" s="3">
         <v>0</v>
@@ -10320,16 +10320,16 @@
         <v>0</v>
       </c>
       <c r="EB18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF18" s="3">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="EL18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM18" s="3">
         <v>0</v>
@@ -10368,13 +10368,13 @@
         <v>0</v>
       </c>
       <c r="ER18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES18" s="3">
         <v>0</v>
       </c>
       <c r="ET18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU18" s="3">
         <v>0</v>
@@ -10386,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="EX18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY18" s="3">
         <v>0</v>
@@ -10395,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="FA18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB18" s="3">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="FN18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO18" s="3">
         <v>0</v>
@@ -10496,25 +10496,25 @@
         <v>2</v>
       </c>
       <c r="R19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="3">
         <v>0</v>
       </c>
       <c r="V19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="3">
         <v>0</v>
       </c>
       <c r="X19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="3">
         <v>0</v>
@@ -10523,7 +10523,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="3">
         <v>0</v>
@@ -10535,7 +10535,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="3">
         <v>0</v>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" s="3">
         <v>0</v>
@@ -10562,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="AN19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19" s="3">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="AZ19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="3">
         <v>0</v>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="BM19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="3">
         <v>0</v>
@@ -10652,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="BR19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS19" s="3">
         <v>0</v>
@@ -10694,13 +10694,13 @@
         <v>0</v>
       </c>
       <c r="CF19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG19" s="3">
         <v>0</v>
       </c>
       <c r="CH19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI19" s="3">
         <v>0</v>
@@ -10721,25 +10721,25 @@
         <v>0</v>
       </c>
       <c r="CO19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT19" s="3">
         <v>2</v>
       </c>
-      <c r="CP19" s="3">
-        <v>1</v>
-      </c>
-      <c r="CQ19" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR19" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS19" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT19" s="3">
-        <v>0</v>
-      </c>
       <c r="CU19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV19" s="3">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="ED19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE19" s="3">
         <v>0</v>
@@ -10886,10 +10886,10 @@
         <v>0</v>
       </c>
       <c r="ER19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET19" s="3">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="EX19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY19" s="3">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="FA19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB19" s="3">
         <v>0</v>
@@ -10955,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="FO19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP19" s="3">
         <v>0</v>
